--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF9C34-17BA-4F7C-8B11-94DA82D3198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924BBB2-A79D-4771-AE7F-9BFD02F871B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -105,16 +105,10 @@
     <t>云瑕</t>
   </si>
   <si>
-    <t>Halcyon</t>
-  </si>
-  <si>
     <t>attached_script:白狮地牢地城_云暇</t>
   </si>
   <si>
     <t>弦萝</t>
-  </si>
-  <si>
-    <t>Dahlia</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>灰雪</t>
-  </si>
-  <si>
-    <t>Threnody</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -211,9 +202,6 @@
     <t>伊潘图</t>
   </si>
   <si>
-    <t>Ishtar</t>
-  </si>
-  <si>
     <t>Like:珠宝|神秘
 Desc:伊潘图曾经隶属于野火组织，在上一任野火首领遇袭后，伊潘图选择了带领野火余党继续发展壮大。伊潘图生性贪婪，对于金钱没有一丝抵抗力，这样的贪婪让他为眼前的蝇头小利所束缚，眼光无法放得足够长远，这也注定了野火组织交到他手上很难有一个很大的发展。伊潘图认为上一任野火首领之死与曾经的队友隆达脱不了干系，所以伊潘图一直在寻找隆达，他立誓要为前首领报仇雪恨。
 Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
@@ -322,9 +310,6 @@
     <t>阿戈斯</t>
   </si>
   <si>
-    <t>Ahriman</t>
-  </si>
-  <si>
     <t>Desc:阿戈斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -337,9 +322,6 @@
     <t>提尔瑞斯</t>
   </si>
   <si>
-    <t>Cimeri</t>
-  </si>
-  <si>
     <t>Desc:提尔瑞斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -388,202 +370,109 @@
 AssSkill:统率技能柯墨斯</t>
   </si>
   <si>
-    <t>喜欢的礼物: Yo... bueno, me gusta &lt;color=red&gt;pintar&lt;/color&gt;... No, por favor, no es necesario que me regales nada.
-hello: ¡Oh, eres tú. ¿Necesitas algo?
-refuse_recruit_0: Lo siento, debo continuar con mi investigación.
-refuse_recruit_1: Lo siento, en este momento mis compromisos no me permiten hacerlo.
-refuse_recruit_2: Algo parece haber cambiado en ti... No estoy seguro de qué exactamente, pero... quizás nuestros objetivos no se encuentren en el mismo camino.
-refuse_recruit_3:... No tengo nada que decirte.
-recruit_msg: ¿De verdad? ¡Me encantaria!</t>
-  </si>
-  <si>
-    <t>Like:绘画
-Desc:Nassant es un mago oscuro, pero, a diferencia de los estereotipos populares, utiliza sus habilidades para la curación en un mundo donde la magia de curación está dominada por la Rosa Blanca. Su dedicación ha salvado muchas vidas, pero también le ha ganado varios enemigos.
-Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
-AssSkill:统率技能南松</t>
-  </si>
-  <si>
-    <t>喜欢的礼物：¡Un regalo! ¡Genial! Hay muchas cosas que quiero... &lt;color=red&gt;libros de historias&lt;/color&gt;, &lt;color=red&gt;equipamiento especial&lt;/color&gt;, &lt;color=red&gt;artesanías&lt;/color&gt;, &lt;color=red&gt;baratijas&lt;/color&gt;...
-hello: ¿Necesitas algo?
-refuse_recruit_0: Quiero intentar forjar mi propio camino.
-refuse_recruit_1: Quiero intentar lograrlo por mis propios medios.
-refuse_recruit_2: Siento que últimamente hemos tenido algunas... diferencias.
-refuse_recruit_3: ¿Hice algo mal?
-recruit_msg: ¡Finalmente!</t>
-  </si>
-  <si>
-    <t>Like:故事|特殊装备|工艺|装饰
-Desc:Zeynep, la hermana menor de tu amada esposa fallecida, es un espíritu lleno de vitalidad y travesuras. Desde su infancia, su energía y alegría han iluminado cada rincón de tu vida. Con su sonrisa contagiosa y su ingenio travieso, Zeynep ha sido una fuente constante de diversión y aventura.
-Sin embargo, detrás de su personalidad vivaz, Zeynep también lleva consigo un profundo amor y afecto por su hermana, tu esposa fallecida. Su vínculo especial las unía de manera inquebrantable, y aunque su ausencia dejó un vacío en el corazón de Zeynep, su espíritu persiste como un recordatorio constante de la belleza y la alegría que su hermana trajo a sus vidas.
-Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能阿绫</t>
-  </si>
-  <si>
-    <t>喜欢的礼物: ¡Cómo te atreves a hablarme siquiera!
-hello: ¡Tú! ¡Esta vez no me contendré!
-refuse_recruit_0: ¡Nunca! Te despreciaré hasta el fin de los tiempos...
-recruit_msg: Nunca me perdonaré por esto…</t>
-  </si>
-  <si>
-    <t>Desc:Leena, una mujer encantadora que afirma ser de Dunestorm, en realidad es la hija del capitán de la guardia de la ciudad de Jamal. Ella cree que un Spiritmancer de Nasir mató a su padre y hermano.
-Su corazón está lleno de dolor y sed de venganza. Leena ha dedicado su vida a buscar justicia para su familia, convencida de que los responsables deben pagar por sus crímenes. Su determinación y habilidades la han llevado a convertirse en una guerrera formidable.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
-AssSkill:统率技能萧雅</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Dahlia, también conocida como Halcyon, alguna vez fue una bruja respetada dentro de la Sociedad de la Rosa Blanca. Sin embargo, su vida dio un giro oscuro cuando se encontró bajo arresto domiciliario impuesto por Rebiya, la Reina de los Dakn. En un acto retorcido de manipulación, Dahlia fue obligada a crear un polvo mágico potente en contra de su voluntad. Este polvo, hábilmente utilizado por Rebiya, fue utilizado para paralizar a Hassan, el propio hermano de Dahlia y antiguo líder de los Dakn. Ahora cargada de culpa y remordimiento, el camino de Dahlia está entrelazado con la desesperada búsqueda de liberarse de las garras de Rebiya y buscar redención por sus acciones.
-Impulsada por su nuevo alias, Halcyon, Dahlia se adentra en un mundo traicionero de intriga y secretos. Determinada a derrocar el reinado tiránico de Rebiya, busca alianzas y estrategias improbables para liberar a Hassan y desmantelar el régimen opresivo. Cada movimiento que realiza está lleno de peligro, y las consecuencias de sus decisiones pesan fuertemente en su conciencia. Mientras navega por las sombras de su pasado, Dahlia enfrenta un dilema moral, dividida entre su seguridad personal y el bien común. Su viaje se convierte en una prueba de su resiliencia, mientras busca restaurar la armonía y la justicia en un mundo manchado por la traición y la opresión.
-Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
-AssSkill:统率技能弦萝</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Dotada de un talento extraordinario para la magia, Threnody nació para ser una bruja. Se suponía que sería elegida para ir a la Ciudad del Cielo y continuar su entrenamiento en el camino hacia la grandeza. Sin embargo, los Furud la abandonaron cuando se predijo que no tenía futuro, ya que la magia fluía de Threnody de una manera que ella no podía controlar, condenándola eventualmente a agotar su reserva de poder y, por ende, su vida. Threnody dejó su hogar y a su familia, buscando tomar su destino en sus propias manos y demostrar a los Furud que ningún destino está escrito en piedra.
-Voice:NpcVoice.huixue
-BattleVoice:BattleVoice.huixue
-Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
-AssSkill:统率技能灰雪</t>
-  </si>
-  <si>
-    <t>Like:故事|格斗
-Desc:Desde muy joven, Omar se ganó la reputación de ser un espíritu indomable. El padre de Omar era un famoso comerciante en la región de las Montañas Zagros y abandonó a la madre de Omar por otra mujer cuando este tenía 14 años. Esto provocó una relación tensa entre Omar, su padre y su madrastra, una relación que amenazaba con convertirse en hostilidad abierta, hasta que por casualidad descubrió la verdad...
-Voice:NpcVoice.hupo
-BattleVoice:BattleVoice.hupo
-Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能琥珀</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|音乐
-WildMonsterKiller:1
-Desc:La exploradora Tasha se adentra en ruinas antiguas dispersas por toda la tierra, buscando descubrir el pasado oculto bajo las arenas. Ha visitado ciudades antiguas y palacios subterráneos, se ha enfrentado a maldiciones arcanas y ha escuchado las voces de los antiguos dioses. Tasha tiene como compañero a un solenodonte, cuyo mordisco venenoso, inmunidad a los venenos y habilidad para detectar el peligro le han sido de gran ayuda en sus travesías.
-Voice:NpcVoice.luoweisha
-BattleVoice:BattleVoice.luoweisha
-Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能洛维莎</t>
-  </si>
-  <si>
     <t>Mech Threnody (abandonado)</t>
   </si>
   <si>
-    <t>Like:历史|特殊装备
-Desc:Badis, un joven Comandante de los Shujae, se ha convertido en una figura destacada desde la partida del legendario "Jackal" de las filas de los Shujae. Con su liderazgo valiente y habilidades tácticas excepcionales, ha llevado a los mercenarios de los Shujae a una serie de victorias inigualables.
-La ausencia del "Jackal" creó un vacío en el corazón de los Shujae, pero Badis ha demostrado ser un digno sucesor. Con su audacia y determinación, ha sabido ganarse el respeto y la lealtad de sus compañeros. Bajo su mando, los Shujae han alcanzado nuevas cotas de éxito en el campo de batalla, enfrentándose a desafíos formidables y emergiendo victoriosos.
-Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能长孙弘</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|格斗
-Desc:Laik es un mercenario de alto rango altamente ambicioso de los Shujae. Es uno de los miembros más antiguos de la organización y alberga la esperanza de servir algún día como su líder.
-Desde sus primeros días como mercenario, Laik ha demostrado una habilidad excepcional en el campo de batalla y una determinación implacable para alcanzar la cima. Su lealtad y dedicación a los Shujae han sido inquebrantables, lo que le ha permitido ascender a un puesto de alto rango dentro de la organización.
-Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
-AssSkill:统率技能雷毅</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Rabia, exmiembro de la Pandilla Wildfire y amigo del fundador que le dio nombre, se unió al clan Nasir por instrucciones de Wildfire, quien estaba gravemente enfermo. Bajo su liderazgo, Rabia condujo al clan Nasir a tomar la cabeza de Wildfire. Convenció a muchos de los miembros de la pandilla para unirse al clan Nasir, mientras que el resto siguió a Ishtar. Ahora, bajo el mando de Husnu, Rabia continúa protegiendo a sus antiguos hermanos de la Pandilla Wildfire, cumpliendo así su promesa a Wildfire.
-La lealtad de Rabia hacia su amigo y fundador de la Pandilla Wildfire lo llevó a tomar decisiones difíciles y a embarcarse en un nuevo camino junto al clan Nasir. Su capacidad de persuasión fue clave para asegurar la transición de los miembros de la pandilla al nuevo clan. Aunque sus caminos se dividieron, Rabia sigue manteniendo su vínculo con aquellos que compartieron su pasado en la Pandilla Wildfire.
-Bajo el liderazgo de Husnu, Rabia ha encontrado un nuevo propósito en la protección y el apoyo a sus hermanos de la Pandilla Wildfire en su nueva afiliación con el clan Nasir. A pesar de los desafíos y las pruebas que enfrentan, Rabia se mantiene firme en su promesa de cuidar de ellos y asegurar su bienestar.
-Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能隆达</t>
-  </si>
-  <si>
-    <t>Like:珠宝|神秘
-Desc:Exmiembro de la Pandilla Wildfire, Ishtar se convirtió en el líder de sus restos cuando el líder anterior de la pandilla fue asesinado. La avaricia ha vuelto a Ishtar miope, limitando el potencial de su organización. Continúa buscando a Rabia, a quien cree responsable de la muerte del líder de la Pandilla Wildfire.
-Ishtar, como exmiembro de la Pandilla Wildfire, ascendió al liderazgo cuando su líder anterior fue asesinado. Sin embargo, su avaricia ha afectado su visión y ha restringido el potencial de su organización. Su enfoque estrecho y centrado en el beneficio personal ha limitado su capacidad para ver más allá de sus propios intereses, perjudicando así las oportunidades de crecimiento y desarrollo de su grupo.
-Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
-AssSkill:统率技能伊潘图</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Yaksha, una mujer aparentemente común de la estirpe de los Maestros de las Bestias, oculta un don extraordinario. A diferencia de otros miembros de su linaje, no puede transformarse en una bestia, pero posee la habilidad única de apaciguar a las personas de otras tribus. A pesar de su apariencia ordinaria, Yaksha carga con un anhelo profundo: liberar a su pueblo de una antigua maldición. Con el fin de aprender cómo curar a su familia y desentrañar el enigma que ha afectado a su linaje durante generaciones, Yaksha busca unirse a la prestigiosa Sociedad de la Rosa Blanca.
-Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
-AssSkill:统率技能希也</t>
-  </si>
-  <si>
-    <t>Desc:El Maestro del Vacío Ifrit es el líder de los Ifrit. Cuando la Diosa del Río selló a los Ifrit, estos crearon una barrera que impide al mundo exterior detectar los poderes y la ubicación del Maestro del Vacío Ifrit. ¿El costo? Su lento deterioro hasta llegar a su estado actual.
-Atrapados tras la barrera, los Ifrit han sufrido un declive constante. El Maestro del Vacío Ifrit, en su papel de líder, ha enfrentado el desafío de guiar a su pueblo en medio de la desaparición gradual de su antiguo esplendor. Mientras el mundo exterior desconoce su existencia, el Maestro del Vacío Ifrit lucha por preservar la identidad y los poderes de su raza, buscando una forma de liberarse de la barrera y restaurar su gloria perdida. Enfrentando la incertidumbre y desafiando los obstáculos, el Maestro del Vacío Ifrit se convierte en el faro de esperanza para los suyos, impulsándolos a superar su actual estado y recuperar su antigua grandeza.
-IsNoExpel:1
-IsNoBetray:1</t>
-  </si>
-  <si>
-    <t>Ifrit-Maestro del Vacío</t>
-  </si>
-  <si>
-    <t>Desc:Rimmon es el Comandante de las fuerzas Ifrit y el consejero de confianza del Maestro del Vacío Ifrit. Destaca por su imponente estatura, incluso entre los Ifrit. Desde siempre, Rimmon ha abogado por la conquista de la humanidad y personalmente ha liderado al ejército Ifrit en la batalla de Salzaar.
-Con su presencia imponente y su habilidad estratégica, Rimmon se ha convertido en una figura central en la toma de decisiones militares de los Ifrit. Su posición como comandante y consejero le otorga una influencia significativa sobre el rumbo de las acciones del pueblo Ifrit.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Thamuz, quizás el más antiguo de todos los Ifrit, fue un alto sacerdote entre su pueblo antes de que el Maestro del Vacío Ifrit asumiera el liderazgo. No subestimes sus habilidades solo por su frágil apariencia.
-A pesar de su aspecto frágil, Thamuz posee una sabiduría y un poder que se han forjado a lo largo de los años. Su antigua posición como sacerdote le ha otorgado un profundo conocimiento de los misterios y rituales de los Ifrit, así como una conexión especial con las energías y fuerzas que los rodean.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Yamuz es el aprendiz favorito de Thamuz y uno de los cuatro subcomandantes de Rimmon. Aunque relativamente joven, Yamuz ha dominado la mayoría de las terroríficas artes arcanas de Thamuz.
-Bajo la tutela de Thamuz, Yamuz ha demostrado un talento excepcional y una asimilación rápida de los conocimientos arcanos. Ha absorbido las enseñanzas de Thamuz con dedicación y ha perfeccionado sus habilidades místicas a un nivel impresionante.
-La relación maestro-aprendiz entre Thamuz y Yamuz ha permitido que este último adquiera un dominio profundo de las arcanas que alguna vez fueron exclusivas de Thamuz. Yamuz ha desarrollado su propia destreza y versatilidad, combinando su juventud y energía con la sabiduría ancestral transmitida por su maestro.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Shaka es una veterana del ejército de los Ifrit. Anhela regresar a Salzaar para recobrar la gloria y el honor de sus años pasados.
-Con una larga experiencia en el campo de batalla, Shaka ha participado en numerosas campañas y ha enfrentado desafíos formidables. Sin embargo, la llamada de Salzaar ha resonado en su interior, despertando un deseo ardiente de volver y demostrar una vez más su valía.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Dago es uno de los cuatro subcomandantes de Rimmon. Su lealtad hacia el Maestro del Vacío Ifrit es absoluta, incluso hasta la muerte.
-Dago ha demostrado ser un fiel seguidor y defensor del Maestro del Vacío Ifrit. Su devoción y lealtad son inquebrantables, y está dispuesto a sacrificarlo todo por su líder y por la causa de los Ifrit.
-Como subcomandante de Rimmon, Dago es una presencia imponente en el campo de batalla. Su habilidad para inspirar a las tropas y su dedicación a la misión los guían hacia la victoria.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Ahriman sirve directamente bajo el mando de Rimmon como uno de los cuatro subcomandantes y se encarga de explorar y vigilar por delante de las principales fuerzas de los Ifrit.
-Como subcomandante y explorador principal, Ahriman desempeña un papel esencial en la estrategia y planificación de las operaciones de los Ifrit. Su misión es adelantarse y recopilar información crucial sobre el terreno, los enemigos potenciales y los posibles obstáculos que puedan surgir en el camino de las fuerzas principales.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Cimeri, en un principio, era un erudito encargado de registrar la historia de su pueblo, los Ifrit. Sin embargo, tras ser desterrado por la Diosa del Río, su enfoque cambió drásticamente. Cimeri se sumergió en el estudio de las artes arcanas con fervor, movido por un deseo de venganza, y se convirtió en uno de los subcomandantes de Rimmon.
-La pasión por buscar venganza consumió a Cimeri después de su destierro de la sociedad de los Ifrit. Su devoción a las artes arcanas se intensificó, y su objetivo se transformó en aprovechar sus nuevos conocimientos para derrotar a aquellos que les habían causado tanto dolor y sufrimiento.
-Como subcomandante de Rimmon, Cimeri desempeña un papel importante en las operaciones y estrategias de los Ifrit.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Agni es quizás el más enfurecido de todos los Ifrit y desatará su ira sobre aquellos que estén más cerca.
-Agni encarna una furia desbordante que arde en su interior. Su temperamento volátil puede desencadenarse fácilmente y, en su furia, buscará liberar su ira sobre aquellos que estén a su alcance.
-Como uno de los Ifrit más enojados, Agni es conocido por su explosiva agresividad. Su ira es como un fuego descontrolado que consume todo a su paso. Enfrentarse a Agni puede ser una experiencia temible, ya que su rabia puede manifestarse de manera destructiva y caótica.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Like:乐器|神秘
-Desc:Malek comenzó su vida adulta como mercenario, pero fue perfeccionando su talento en el arte de la magia. Tras mejorar sus habilidades, Malek decidió convertirse en un hechicero a tiempo completo. Se unió al Gremio de los Magos en la Ciudad de Amaranth y trabaja como investigador especializado en todo lo relacionado con lo arcano.
-La transición de Malek de mercenario a hechicero refleja su dedicación y pasión por el dominio de la magia. A medida que perfeccionaba sus habilidades mágicas, decidió emplear su conocimiento y poderes en el servicio de la investigación arcanica.
-En su rol como investigador especial, Malek tiene la tarea de explorar y desentrañar los misterios y secretos del mundo de la magia.
-Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
-AssSkill:统率技能马可</t>
-  </si>
-  <si>
-    <t>Like:神秘|故事|特殊装备
-Desc:Khaldun no siempre habla de su pasado. Antes, era un astuto y paciente mago del clan Dakn, dispuesto a emplear cualquier medio para alcanzar sus objetivos. Sin embargo, en algún momento, se negó de alguna manera a utilizar la magia espiritual.
-Aunque Khaldun guarda silencio sobre su pasado, su cambio de actitud hacia la magia espiritual ha dejado una profunda impresión en su vida y en su camino actual. Anteriormente conocido por su astucia y paciencia como mago Dakn, Khaldun ha encontrado una razón para rechazar el uso de la magia espiritual y ha decidido seguir un camino diferente.
-La negativa de Khaldun a emplear la magia espiritual puede estar fundamentada en varias motivaciones personales o eventos significativos de su vida. Esta elección puede reflejar un cambio en sus valores, una nueva perspectiva sobre el uso de la magia o tal vez una experiencia traumática que lo ha llevado a reconsiderar su enfoque anterior.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能柯墨斯</t>
+    <t>idílico</t>
+  </si>
+  <si>
+    <t>Dália</t>
+  </si>
+  <si>
+    <t>Trenody</t>
+  </si>
+  <si>
+    <t>Istar</t>
+  </si>
+  <si>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>Ahrimã</t>
+  </si>
+  <si>
+    <t>Cimério</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Eu, er...bem, eu gosto de &lt;color=red&gt;pintar&lt;/color&gt;... Não, por favor, não há necessidade de me dar nada. olá: Ah, é você. Preciso de algo? recusar_recruit_0:Sinto muito, preciso continuar minha pesquisa. recusar_recruit_1:Sinto muito, meus compromissos não me permitem fazer isso agora. recusar_recruit_2:Algo parece ter mudado em você... Não tenho certeza do que exatamente, mas... talvez nossos objetivos não estejam no mesmo caminho. recusar_recruit_3:... Não tenho nada a dizer a você. recruta_msg:Sério? Ficaria muito satisfeito!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Um presente? Ótimo! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red &gt;bugigangas&lt;/color&gt;... olá:Precisa de algo? recusar_recruit_0:Quero tentar traçar meu próprio caminho. recusar_recruit_1:Quero tentar torná-lo meu. recusar_recruit_2:Sinto que ultimamente tivemos algumas... diferenças. recusar_recruit_3:Eu fiz algo errado? recruta_msg:Finalmente!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Como você ousa falar comigo! Olá! Não vou segurar minha mão desta vez! recusar_recruit_0:Nunca! Eu vou te desprezar até o fim dos tempos... recruta_msg:Eu nunca vou me perdoar por isso...</t>
+  </si>
+  <si>
+    <t>Como:绘画 Desc:Nassant é um bruxo das trevas, mas, ao contrário dos estereótipos populares, usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu alguns inimigos. Natureza: gentil = 8, severo = 2, honesto = 6, astúcia = 4, calmo = 5, raiva = 5, forte = 3, fraco = 7 Habilidade de bunda: 统率技能南松</t>
+  </si>
+  <si>
+    <t>Tipo:故事|特殊装备|工艺|装饰 Desc:Zeynep é a irmã mais nova de sua falecida esposa. Animado e travesso. Natureza: gentil = 9, severo = 1, honesto = 3, astúcia = 7, calmo = 2, raiva = 8, forte = 5, fraco = 5 Habilidade de bunda: 统率技能阿绫</t>
+  </si>
+  <si>
+    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, é na verdade filha do capitão da guarda de Jamal City. Ela acredita que um Spiritmancer do Nasir matou seu pai e irmão. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 8, fraco = 2 Habilidade de bunda: 统率技能萧雅</t>
+  </si>
+  <si>
+    <t>anexo_script:白狮地牢地城_云暇</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘 Desc:Dahlia também atende pelo nome de Halcyon. Ela já foi uma bruxa na Sociedade Rosa Branca, mas foi colocada em prisão domiciliar por Rebiya, Rainha do Dakn, e forçada a produzir um pó mágico. Rebiya usou esse pó para paralisar Hassan, seu irmão e ex-líder do Dakn. Natureza: gentil = 5, severo = 5, honesto = 3, astúcia = 7, calmo = 8, raiva = 2, forte = 6, fraco = 4 Habilidade de bunda: 统率技能弦萝</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘 Desc:Abençoada com um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela seria escolhida para ir para Sky City para continuar seu treinamento no caminho para a grandeza, mas o Furud a abandonou quando foi predito que ela não tinha futuro, pois a magia fluía de Threnody de uma maneira que ela não podia controlar. condenando-a a eventualmente esgotar seu reservatório de poder e, portanto, sua vida. Threnody deixou sua casa e família, buscando tomar seu destino em suas próprias mãos e provar ao Furud que nenhum destino é imutável. Voz:NpcVoice.huixue BattleVoice:BattleVoice.huixue Natureza:tipo=7,severo=3,honesto=7,astúcia=3,calma=4,raiva=6,forte=2,fraco=8 AssSkill:统率技能灰雪</t>
+  </si>
+  <si>
+    <t>Like:故事|格斗 Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito indisciplinado. O pai de Omar era um comerciante famoso na região das Montanhas Zagros e abandonou a mãe de Omar por outra mulher quando Omar tinha 14 anos. Omar tinha, portanto, um relacionamento tenso com seu pai e sua madrasta, que ameaçava se transformar em hostilidade total, até que por acaso ele descobriu a verdade... Voz: NpcVoice.hupo BattleVoice: BattleVoice.hupo Natureza: tipo = 6, grave = 3, honesto = 8, astúcia = 2, calma = 2, raiva = 8, forte = 5, fraco = 5 AssSkill:统率技能琥珀</t>
+  </si>
+  <si>
+    <t>Como:历史|特殊装备|音乐 WildMonsterKiller:1 Desc:A exploradora Tasha procura ruínas antigas espalhadas pela terra, buscando descobrir o passado escondido sob as areias. Ela visitou cidades antigas e palácios subterrâneos, ficou cara a cara com maldições sobrenaturais e ouviu as vozes dos antigos deuses. Ela mantém um solenodonte de estimação, cuja mordida venenosa, imunidade a venenos e capacidade de sentir o perigo têm sido muito úteis para Tasha em suas viagens. Voz:NpcVoice.luoweisha BattleVoice:BattleVoice.luoweisha Natureza:tipo=6,severo=4,honesto=5,astúcia=5,calma=9,raiva=1,forte=8,fraco=2 AssSkill:统率技能洛维莎</t>
+  </si>
+  <si>
+    <t>Tipo:历史|特殊装备 Desc:Badis é um jovem comandante de Shujae. Desde que o “Chacal” deixou Shujae, ele liderou os mercenários Shujae a inúmeras vitórias. Natureza: gentil = 6, severo = 4, honesto = 6, astúcia = 4, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能长孙弘</t>
+  </si>
+  <si>
+    <t>Como:历史|特殊装备|格斗 Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos, mas tem esperanças de eventualmente servir como seu líder. Natureza: gentil = 2, severo = 8, honesto = 2, astúcia = 8, calmo = 5, raiva = 5, forte = 7, fraco = 3 Habilidade de bunda: 统率技能雷毅</t>
+  </si>
+  <si>
+    <t>Like:乐器|绘画 Desc:Ex-membro da Wildfire Clique e amigo de seu fundador homônimo. Rabia se juntou ao clã Nasir sob as instruções do Wildfire, mortalmente doente, levando-os a tomar a cabeça de Wildfire. Rabia convenceu muitos dos membros da camarilha a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora servindo sob o comando de Husnu, Rabia continua a proteger seus ex-irmãos da Wildfire Clique, de acordo com sua promessa ao Wildfire. Natureza: gentil = 5, severo = 5, honesto = 8, astúcia = 2, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能隆达</t>
+  </si>
+  <si>
+    <t>Como:珠宝|神秘 Desc:Ex-membro da Clique Wildfire, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da camarilha foi morto. A avareza tornou Ishtar míope, limitando o potencial de sua organização. Ele continua a procurar Rabia, que ele acredita ser o responsável pela morte do líder da Clique do Wildfire. Natureza: gentil = 4, severo = 6, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 3, fraco = 7 Habilidade de bunda: 统率技能伊潘图</t>
+  </si>
+  <si>
+    <t>Tipo:乐器|绘画 Desc:Yaksha é uma mulher bastante comum da linhagem Beastmaster. Ela tem a habilidade de pacificar pessoas de outras costelas, mas não pode se transformar em uma fera. Yaksha tem um desejo simples: que a maldição de seu povo seja removida. Como tal, ela deseja ingressar na Sociedade Rosa Branca para aprender como curar sua família. Natureza: gentil = 8, severo = 2, honesto = 7, astúcia = 3, calmo = 9, raiva = 1, forte = 6, fraco = 4 AssHabilidade: 统率技能希也</t>
+  </si>
+  <si>
+    <t>Desc:O Ifrit Void Master é o líder do Ifrit. Quando a Deusa do Rio selou o Ifrit, eles criaram uma barreira que impediu o mundo exterior de detectar os poderes e a localização do Mestre do Vazio Ifrit. O custo? Seu lento declínio ao estado atual. IsNoExpel:1 IsNoBetray:1</t>
+  </si>
+  <si>
+    <t>Desc:Rimmon é o comandante das forças Ifrit e o conselheiro de maior confiança do Ifrit Void Master. Ele é de estatura gigante, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit na batalha em Salzaar. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Thamuz é talvez o mais velho de todos os Ifrit. Ele era um sumo sacerdote entre os Ifrit antes do Ifrit Void Master assumir a liderança. Não subestime suas habilidades apenas olhando para sua estatura frágil. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro deputados de Rimmon. Ele é um Ifrit relativamente jovem, mas dominou a maioria dos terríveis arcanos de Thamuz. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Shaka é um veterano do exército Ifrit. Ela está ansiosa para retornar a Salzaar para recuperar a glória e a honra de seus anos anteriores. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Dago é um dos quatro deputados de Rimmon. Dago é totalmente leal ao Ifrit Void Master, até a morte. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Ahriman serve diretamente sob o comando de Rimmon como um dos quatro deputados e é encarregado de explorar à frente das forças principais do Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Cimeri foi principalmente um estudioso encarregado de registrar a história de seu povo - os Ifrit. Depois que eles foram banidos pela Deusa do Rio, ele começou a estudar fervorosamente as artes arcanas em busca de vingança como um dos representantes de Rimmon. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Agni é talvez o mais raivoso de todos os Ifrit, e descarregará sua raiva em quem estiver mais próximo. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Como:乐器|神秘 Desc:Malek começou sua vida adulta como mercenário, mas começou a aprimorar seu talento para arcanos. Depois de melhorar suas habilidades, Malek escolheu se tornar um feiticeiro em tempo integral. Ele se juntou à Wizards Guild em Amaranth Town e trabalha como investigador especial de todas as coisas misteriosas. Natureza: gentil = 6, severo = 4, honesto = 7, astúcia = 3, calmo = 6, raiva = 4, forte = 5, fraco = 5 Habilidade de bunda: 统率技能马可</t>
+  </si>
+  <si>
+    <t>Tipo:神秘|故事|特殊装备 Desc:Khaldun nem sempre fala sobre seu passado. Outrora astuto e paciente como um mago Dakn, ele não poupou meios para atingir seus objetivos, mas mais tarde se recusou a usar magia espiritual de alguma forma. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 9, raiva = 1, forte = 8, fraco = 2 Habilidade de bunda: 统率技能柯墨斯</t>
   </si>
 </sst>
 </file>
@@ -714,47 +603,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -1105,11 +991,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.125" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
       <c r="A1" s="8" t="s">
@@ -1147,14 +1040,14 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>92</v>
+      <c r="E2" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>93</v>
+      <c r="G2" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5">
@@ -1170,17 +1063,17 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
+      <c r="E3" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5">
+      <c r="G3" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1193,17 +1086,17 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.5">
+      <c r="G4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1211,387 +1104,387 @@
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="94.5">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.5">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="189">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="148.5">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="162">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="409.5">
+    <row r="11" spans="1:7" ht="94.5">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.5">
+        <v>35</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="94.5">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.5">
+        <v>38</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="148.5">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.5">
+        <v>41</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="148.5">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="409.5">
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="108">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.5">
+        <v>46</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="94.5">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="409.5">
+        <v>48</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="94.5">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.5">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5">
+        <v>56</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.5">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.5">
+        <v>60</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="67.5">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.5">
+        <v>64</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="67.5">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="409.5">
+        <v>68</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="67.5">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5">
+        <v>71</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="67.5">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.5">
+        <v>74</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="67.5">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.5">
+        <v>78</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="108">
       <c r="A25" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.5">
+        <v>81</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="94.5">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>119</v>
+        <v>85</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924BBB2-A79D-4771-AE7F-9BFD02F871B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF9C34-17BA-4F7C-8B11-94DA82D3198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -105,10 +105,16 @@
     <t>云瑕</t>
   </si>
   <si>
+    <t>Halcyon</t>
+  </si>
+  <si>
     <t>attached_script:白狮地牢地城_云暇</t>
   </si>
   <si>
     <t>弦萝</t>
+  </si>
+  <si>
+    <t>Dahlia</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -118,6 +124,9 @@
   </si>
   <si>
     <t>灰雪</t>
+  </si>
+  <si>
+    <t>Threnody</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -202,6 +211,9 @@
     <t>伊潘图</t>
   </si>
   <si>
+    <t>Ishtar</t>
+  </si>
+  <si>
     <t>Like:珠宝|神秘
 Desc:伊潘图曾经隶属于野火组织，在上一任野火首领遇袭后，伊潘图选择了带领野火余党继续发展壮大。伊潘图生性贪婪，对于金钱没有一丝抵抗力，这样的贪婪让他为眼前的蝇头小利所束缚，眼光无法放得足够长远，这也注定了野火组织交到他手上很难有一个很大的发展。伊潘图认为上一任野火首领之死与曾经的队友隆达脱不了干系，所以伊潘图一直在寻找隆达，他立誓要为前首领报仇雪恨。
 Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
@@ -310,6 +322,9 @@
     <t>阿戈斯</t>
   </si>
   <si>
+    <t>Ahriman</t>
+  </si>
+  <si>
     <t>Desc:阿戈斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -320,6 +335,9 @@
   </si>
   <si>
     <t>提尔瑞斯</t>
+  </si>
+  <si>
+    <t>Cimeri</t>
   </si>
   <si>
     <t>Desc:提尔瑞斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
@@ -370,109 +388,202 @@
 AssSkill:统率技能柯墨斯</t>
   </si>
   <si>
+    <t>喜欢的礼物: Yo... bueno, me gusta &lt;color=red&gt;pintar&lt;/color&gt;... No, por favor, no es necesario que me regales nada.
+hello: ¡Oh, eres tú. ¿Necesitas algo?
+refuse_recruit_0: Lo siento, debo continuar con mi investigación.
+refuse_recruit_1: Lo siento, en este momento mis compromisos no me permiten hacerlo.
+refuse_recruit_2: Algo parece haber cambiado en ti... No estoy seguro de qué exactamente, pero... quizás nuestros objetivos no se encuentren en el mismo camino.
+refuse_recruit_3:... No tengo nada que decirte.
+recruit_msg: ¿De verdad? ¡Me encantaria!</t>
+  </si>
+  <si>
+    <t>Like:绘画
+Desc:Nassant es un mago oscuro, pero, a diferencia de los estereotipos populares, utiliza sus habilidades para la curación en un mundo donde la magia de curación está dominada por la Rosa Blanca. Su dedicación ha salvado muchas vidas, pero también le ha ganado varios enemigos.
+Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
+AssSkill:统率技能南松</t>
+  </si>
+  <si>
+    <t>喜欢的礼物：¡Un regalo! ¡Genial! Hay muchas cosas que quiero... &lt;color=red&gt;libros de historias&lt;/color&gt;, &lt;color=red&gt;equipamiento especial&lt;/color&gt;, &lt;color=red&gt;artesanías&lt;/color&gt;, &lt;color=red&gt;baratijas&lt;/color&gt;...
+hello: ¿Necesitas algo?
+refuse_recruit_0: Quiero intentar forjar mi propio camino.
+refuse_recruit_1: Quiero intentar lograrlo por mis propios medios.
+refuse_recruit_2: Siento que últimamente hemos tenido algunas... diferencias.
+refuse_recruit_3: ¿Hice algo mal?
+recruit_msg: ¡Finalmente!</t>
+  </si>
+  <si>
+    <t>Like:故事|特殊装备|工艺|装饰
+Desc:Zeynep, la hermana menor de tu amada esposa fallecida, es un espíritu lleno de vitalidad y travesuras. Desde su infancia, su energía y alegría han iluminado cada rincón de tu vida. Con su sonrisa contagiosa y su ingenio travieso, Zeynep ha sido una fuente constante de diversión y aventura.
+Sin embargo, detrás de su personalidad vivaz, Zeynep también lleva consigo un profundo amor y afecto por su hermana, tu esposa fallecida. Su vínculo especial las unía de manera inquebrantable, y aunque su ausencia dejó un vacío en el corazón de Zeynep, su espíritu persiste como un recordatorio constante de la belleza y la alegría que su hermana trajo a sus vidas.
+Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能阿绫</t>
+  </si>
+  <si>
+    <t>喜欢的礼物: ¡Cómo te atreves a hablarme siquiera!
+hello: ¡Tú! ¡Esta vez no me contendré!
+refuse_recruit_0: ¡Nunca! Te despreciaré hasta el fin de los tiempos...
+recruit_msg: Nunca me perdonaré por esto…</t>
+  </si>
+  <si>
+    <t>Desc:Leena, una mujer encantadora que afirma ser de Dunestorm, en realidad es la hija del capitán de la guardia de la ciudad de Jamal. Ella cree que un Spiritmancer de Nasir mató a su padre y hermano.
+Su corazón está lleno de dolor y sed de venganza. Leena ha dedicado su vida a buscar justicia para su familia, convencida de que los responsables deben pagar por sus crímenes. Su determinación y habilidades la han llevado a convertirse en una guerrera formidable.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
+AssSkill:统率技能萧雅</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘
+Desc:Dahlia, también conocida como Halcyon, alguna vez fue una bruja respetada dentro de la Sociedad de la Rosa Blanca. Sin embargo, su vida dio un giro oscuro cuando se encontró bajo arresto domiciliario impuesto por Rebiya, la Reina de los Dakn. En un acto retorcido de manipulación, Dahlia fue obligada a crear un polvo mágico potente en contra de su voluntad. Este polvo, hábilmente utilizado por Rebiya, fue utilizado para paralizar a Hassan, el propio hermano de Dahlia y antiguo líder de los Dakn. Ahora cargada de culpa y remordimiento, el camino de Dahlia está entrelazado con la desesperada búsqueda de liberarse de las garras de Rebiya y buscar redención por sus acciones.
+Impulsada por su nuevo alias, Halcyon, Dahlia se adentra en un mundo traicionero de intriga y secretos. Determinada a derrocar el reinado tiránico de Rebiya, busca alianzas y estrategias improbables para liberar a Hassan y desmantelar el régimen opresivo. Cada movimiento que realiza está lleno de peligro, y las consecuencias de sus decisiones pesan fuertemente en su conciencia. Mientras navega por las sombras de su pasado, Dahlia enfrenta un dilema moral, dividida entre su seguridad personal y el bien común. Su viaje se convierte en una prueba de su resiliencia, mientras busca restaurar la armonía y la justicia en un mundo manchado por la traición y la opresión.
+Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
+AssSkill:统率技能弦萝</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘
+Desc:Dotada de un talento extraordinario para la magia, Threnody nació para ser una bruja. Se suponía que sería elegida para ir a la Ciudad del Cielo y continuar su entrenamiento en el camino hacia la grandeza. Sin embargo, los Furud la abandonaron cuando se predijo que no tenía futuro, ya que la magia fluía de Threnody de una manera que ella no podía controlar, condenándola eventualmente a agotar su reserva de poder y, por ende, su vida. Threnody dejó su hogar y a su familia, buscando tomar su destino en sus propias manos y demostrar a los Furud que ningún destino está escrito en piedra.
+Voice:NpcVoice.huixue
+BattleVoice:BattleVoice.huixue
+Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
+AssSkill:统率技能灰雪</t>
+  </si>
+  <si>
+    <t>Like:故事|格斗
+Desc:Desde muy joven, Omar se ganó la reputación de ser un espíritu indomable. El padre de Omar era un famoso comerciante en la región de las Montañas Zagros y abandonó a la madre de Omar por otra mujer cuando este tenía 14 años. Esto provocó una relación tensa entre Omar, su padre y su madrastra, una relación que amenazaba con convertirse en hostilidad abierta, hasta que por casualidad descubrió la verdad...
+Voice:NpcVoice.hupo
+BattleVoice:BattleVoice.hupo
+Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能琥珀</t>
+  </si>
+  <si>
+    <t>Like:历史|特殊装备|音乐
+WildMonsterKiller:1
+Desc:La exploradora Tasha se adentra en ruinas antiguas dispersas por toda la tierra, buscando descubrir el pasado oculto bajo las arenas. Ha visitado ciudades antiguas y palacios subterráneos, se ha enfrentado a maldiciones arcanas y ha escuchado las voces de los antiguos dioses. Tasha tiene como compañero a un solenodonte, cuyo mordisco venenoso, inmunidad a los venenos y habilidad para detectar el peligro le han sido de gran ayuda en sus travesías.
+Voice:NpcVoice.luoweisha
+BattleVoice:BattleVoice.luoweisha
+Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能洛维莎</t>
+  </si>
+  <si>
     <t>Mech Threnody (abandonado)</t>
   </si>
   <si>
-    <t>idílico</t>
-  </si>
-  <si>
-    <t>Dália</t>
-  </si>
-  <si>
-    <t>Trenody</t>
-  </si>
-  <si>
-    <t>Istar</t>
-  </si>
-  <si>
-    <t>Mestre do Vazio Ifrit</t>
-  </si>
-  <si>
-    <t>Ahrimã</t>
-  </si>
-  <si>
-    <t>Cimério</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Eu, er...bem, eu gosto de &lt;color=red&gt;pintar&lt;/color&gt;... Não, por favor, não há necessidade de me dar nada. olá: Ah, é você. Preciso de algo? recusar_recruit_0:Sinto muito, preciso continuar minha pesquisa. recusar_recruit_1:Sinto muito, meus compromissos não me permitem fazer isso agora. recusar_recruit_2:Algo parece ter mudado em você... Não tenho certeza do que exatamente, mas... talvez nossos objetivos não estejam no mesmo caminho. recusar_recruit_3:... Não tenho nada a dizer a você. recruta_msg:Sério? Ficaria muito satisfeito!</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Um presente? Ótimo! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red &gt;bugigangas&lt;/color&gt;... olá:Precisa de algo? recusar_recruit_0:Quero tentar traçar meu próprio caminho. recusar_recruit_1:Quero tentar torná-lo meu. recusar_recruit_2:Sinto que ultimamente tivemos algumas... diferenças. recusar_recruit_3:Eu fiz algo errado? recruta_msg:Finalmente!</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Como você ousa falar comigo! Olá! Não vou segurar minha mão desta vez! recusar_recruit_0:Nunca! Eu vou te desprezar até o fim dos tempos... recruta_msg:Eu nunca vou me perdoar por isso...</t>
-  </si>
-  <si>
-    <t>Como:绘画 Desc:Nassant é um bruxo das trevas, mas, ao contrário dos estereótipos populares, usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu alguns inimigos. Natureza: gentil = 8, severo = 2, honesto = 6, astúcia = 4, calmo = 5, raiva = 5, forte = 3, fraco = 7 Habilidade de bunda: 统率技能南松</t>
-  </si>
-  <si>
-    <t>Tipo:故事|特殊装备|工艺|装饰 Desc:Zeynep é a irmã mais nova de sua falecida esposa. Animado e travesso. Natureza: gentil = 9, severo = 1, honesto = 3, astúcia = 7, calmo = 2, raiva = 8, forte = 5, fraco = 5 Habilidade de bunda: 统率技能阿绫</t>
-  </si>
-  <si>
-    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, é na verdade filha do capitão da guarda de Jamal City. Ela acredita que um Spiritmancer do Nasir matou seu pai e irmão. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 8, fraco = 2 Habilidade de bunda: 统率技能萧雅</t>
-  </si>
-  <si>
-    <t>anexo_script:白狮地牢地城_云暇</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘 Desc:Dahlia também atende pelo nome de Halcyon. Ela já foi uma bruxa na Sociedade Rosa Branca, mas foi colocada em prisão domiciliar por Rebiya, Rainha do Dakn, e forçada a produzir um pó mágico. Rebiya usou esse pó para paralisar Hassan, seu irmão e ex-líder do Dakn. Natureza: gentil = 5, severo = 5, honesto = 3, astúcia = 7, calmo = 8, raiva = 2, forte = 6, fraco = 4 Habilidade de bunda: 统率技能弦萝</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘 Desc:Abençoada com um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela seria escolhida para ir para Sky City para continuar seu treinamento no caminho para a grandeza, mas o Furud a abandonou quando foi predito que ela não tinha futuro, pois a magia fluía de Threnody de uma maneira que ela não podia controlar. condenando-a a eventualmente esgotar seu reservatório de poder e, portanto, sua vida. Threnody deixou sua casa e família, buscando tomar seu destino em suas próprias mãos e provar ao Furud que nenhum destino é imutável. Voz:NpcVoice.huixue BattleVoice:BattleVoice.huixue Natureza:tipo=7,severo=3,honesto=7,astúcia=3,calma=4,raiva=6,forte=2,fraco=8 AssSkill:统率技能灰雪</t>
-  </si>
-  <si>
-    <t>Like:故事|格斗 Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito indisciplinado. O pai de Omar era um comerciante famoso na região das Montanhas Zagros e abandonou a mãe de Omar por outra mulher quando Omar tinha 14 anos. Omar tinha, portanto, um relacionamento tenso com seu pai e sua madrasta, que ameaçava se transformar em hostilidade total, até que por acaso ele descobriu a verdade... Voz: NpcVoice.hupo BattleVoice: BattleVoice.hupo Natureza: tipo = 6, grave = 3, honesto = 8, astúcia = 2, calma = 2, raiva = 8, forte = 5, fraco = 5 AssSkill:统率技能琥珀</t>
-  </si>
-  <si>
-    <t>Como:历史|特殊装备|音乐 WildMonsterKiller:1 Desc:A exploradora Tasha procura ruínas antigas espalhadas pela terra, buscando descobrir o passado escondido sob as areias. Ela visitou cidades antigas e palácios subterrâneos, ficou cara a cara com maldições sobrenaturais e ouviu as vozes dos antigos deuses. Ela mantém um solenodonte de estimação, cuja mordida venenosa, imunidade a venenos e capacidade de sentir o perigo têm sido muito úteis para Tasha em suas viagens. Voz:NpcVoice.luoweisha BattleVoice:BattleVoice.luoweisha Natureza:tipo=6,severo=4,honesto=5,astúcia=5,calma=9,raiva=1,forte=8,fraco=2 AssSkill:统率技能洛维莎</t>
-  </si>
-  <si>
-    <t>Tipo:历史|特殊装备 Desc:Badis é um jovem comandante de Shujae. Desde que o “Chacal” deixou Shujae, ele liderou os mercenários Shujae a inúmeras vitórias. Natureza: gentil = 6, severo = 4, honesto = 6, astúcia = 4, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能长孙弘</t>
-  </si>
-  <si>
-    <t>Como:历史|特殊装备|格斗 Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos, mas tem esperanças de eventualmente servir como seu líder. Natureza: gentil = 2, severo = 8, honesto = 2, astúcia = 8, calmo = 5, raiva = 5, forte = 7, fraco = 3 Habilidade de bunda: 统率技能雷毅</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画 Desc:Ex-membro da Wildfire Clique e amigo de seu fundador homônimo. Rabia se juntou ao clã Nasir sob as instruções do Wildfire, mortalmente doente, levando-os a tomar a cabeça de Wildfire. Rabia convenceu muitos dos membros da camarilha a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora servindo sob o comando de Husnu, Rabia continua a proteger seus ex-irmãos da Wildfire Clique, de acordo com sua promessa ao Wildfire. Natureza: gentil = 5, severo = 5, honesto = 8, astúcia = 2, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能隆达</t>
-  </si>
-  <si>
-    <t>Como:珠宝|神秘 Desc:Ex-membro da Clique Wildfire, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da camarilha foi morto. A avareza tornou Ishtar míope, limitando o potencial de sua organização. Ele continua a procurar Rabia, que ele acredita ser o responsável pela morte do líder da Clique do Wildfire. Natureza: gentil = 4, severo = 6, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 3, fraco = 7 Habilidade de bunda: 统率技能伊潘图</t>
-  </si>
-  <si>
-    <t>Tipo:乐器|绘画 Desc:Yaksha é uma mulher bastante comum da linhagem Beastmaster. Ela tem a habilidade de pacificar pessoas de outras costelas, mas não pode se transformar em uma fera. Yaksha tem um desejo simples: que a maldição de seu povo seja removida. Como tal, ela deseja ingressar na Sociedade Rosa Branca para aprender como curar sua família. Natureza: gentil = 8, severo = 2, honesto = 7, astúcia = 3, calmo = 9, raiva = 1, forte = 6, fraco = 4 AssHabilidade: 统率技能希也</t>
-  </si>
-  <si>
-    <t>Desc:O Ifrit Void Master é o líder do Ifrit. Quando a Deusa do Rio selou o Ifrit, eles criaram uma barreira que impediu o mundo exterior de detectar os poderes e a localização do Mestre do Vazio Ifrit. O custo? Seu lento declínio ao estado atual. IsNoExpel:1 IsNoBetray:1</t>
-  </si>
-  <si>
-    <t>Desc:Rimmon é o comandante das forças Ifrit e o conselheiro de maior confiança do Ifrit Void Master. Ele é de estatura gigante, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit na batalha em Salzaar. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Thamuz é talvez o mais velho de todos os Ifrit. Ele era um sumo sacerdote entre os Ifrit antes do Ifrit Void Master assumir a liderança. Não subestime suas habilidades apenas olhando para sua estatura frágil. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro deputados de Rimmon. Ele é um Ifrit relativamente jovem, mas dominou a maioria dos terríveis arcanos de Thamuz. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Shaka é um veterano do exército Ifrit. Ela está ansiosa para retornar a Salzaar para recuperar a glória e a honra de seus anos anteriores. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Dago é um dos quatro deputados de Rimmon. Dago é totalmente leal ao Ifrit Void Master, até a morte. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Ahriman serve diretamente sob o comando de Rimmon como um dos quatro deputados e é encarregado de explorar à frente das forças principais do Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Cimeri foi principalmente um estudioso encarregado de registrar a história de seu povo - os Ifrit. Depois que eles foram banidos pela Deusa do Rio, ele começou a estudar fervorosamente as artes arcanas em busca de vingança como um dos representantes de Rimmon. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Agni é talvez o mais raivoso de todos os Ifrit, e descarregará sua raiva em quem estiver mais próximo. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Como:乐器|神秘 Desc:Malek começou sua vida adulta como mercenário, mas começou a aprimorar seu talento para arcanos. Depois de melhorar suas habilidades, Malek escolheu se tornar um feiticeiro em tempo integral. Ele se juntou à Wizards Guild em Amaranth Town e trabalha como investigador especial de todas as coisas misteriosas. Natureza: gentil = 6, severo = 4, honesto = 7, astúcia = 3, calmo = 6, raiva = 4, forte = 5, fraco = 5 Habilidade de bunda: 统率技能马可</t>
-  </si>
-  <si>
-    <t>Tipo:神秘|故事|特殊装备 Desc:Khaldun nem sempre fala sobre seu passado. Outrora astuto e paciente como um mago Dakn, ele não poupou meios para atingir seus objetivos, mas mais tarde se recusou a usar magia espiritual de alguma forma. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 9, raiva = 1, forte = 8, fraco = 2 Habilidade de bunda: 统率技能柯墨斯</t>
+    <t>Like:历史|特殊装备
+Desc:Badis, un joven Comandante de los Shujae, se ha convertido en una figura destacada desde la partida del legendario "Jackal" de las filas de los Shujae. Con su liderazgo valiente y habilidades tácticas excepcionales, ha llevado a los mercenarios de los Shujae a una serie de victorias inigualables.
+La ausencia del "Jackal" creó un vacío en el corazón de los Shujae, pero Badis ha demostrado ser un digno sucesor. Con su audacia y determinación, ha sabido ganarse el respeto y la lealtad de sus compañeros. Bajo su mando, los Shujae han alcanzado nuevas cotas de éxito en el campo de batalla, enfrentándose a desafíos formidables y emergiendo victoriosos.
+Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能长孙弘</t>
+  </si>
+  <si>
+    <t>Like:历史|特殊装备|格斗
+Desc:Laik es un mercenario de alto rango altamente ambicioso de los Shujae. Es uno de los miembros más antiguos de la organización y alberga la esperanza de servir algún día como su líder.
+Desde sus primeros días como mercenario, Laik ha demostrado una habilidad excepcional en el campo de batalla y una determinación implacable para alcanzar la cima. Su lealtad y dedicación a los Shujae han sido inquebrantables, lo que le ha permitido ascender a un puesto de alto rango dentro de la organización.
+Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
+AssSkill:统率技能雷毅</t>
+  </si>
+  <si>
+    <t>Like:乐器|绘画
+Desc:Rabia, exmiembro de la Pandilla Wildfire y amigo del fundador que le dio nombre, se unió al clan Nasir por instrucciones de Wildfire, quien estaba gravemente enfermo. Bajo su liderazgo, Rabia condujo al clan Nasir a tomar la cabeza de Wildfire. Convenció a muchos de los miembros de la pandilla para unirse al clan Nasir, mientras que el resto siguió a Ishtar. Ahora, bajo el mando de Husnu, Rabia continúa protegiendo a sus antiguos hermanos de la Pandilla Wildfire, cumpliendo así su promesa a Wildfire.
+La lealtad de Rabia hacia su amigo y fundador de la Pandilla Wildfire lo llevó a tomar decisiones difíciles y a embarcarse en un nuevo camino junto al clan Nasir. Su capacidad de persuasión fue clave para asegurar la transición de los miembros de la pandilla al nuevo clan. Aunque sus caminos se dividieron, Rabia sigue manteniendo su vínculo con aquellos que compartieron su pasado en la Pandilla Wildfire.
+Bajo el liderazgo de Husnu, Rabia ha encontrado un nuevo propósito en la protección y el apoyo a sus hermanos de la Pandilla Wildfire en su nueva afiliación con el clan Nasir. A pesar de los desafíos y las pruebas que enfrentan, Rabia se mantiene firme en su promesa de cuidar de ellos y asegurar su bienestar.
+Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能隆达</t>
+  </si>
+  <si>
+    <t>Like:珠宝|神秘
+Desc:Exmiembro de la Pandilla Wildfire, Ishtar se convirtió en el líder de sus restos cuando el líder anterior de la pandilla fue asesinado. La avaricia ha vuelto a Ishtar miope, limitando el potencial de su organización. Continúa buscando a Rabia, a quien cree responsable de la muerte del líder de la Pandilla Wildfire.
+Ishtar, como exmiembro de la Pandilla Wildfire, ascendió al liderazgo cuando su líder anterior fue asesinado. Sin embargo, su avaricia ha afectado su visión y ha restringido el potencial de su organización. Su enfoque estrecho y centrado en el beneficio personal ha limitado su capacidad para ver más allá de sus propios intereses, perjudicando así las oportunidades de crecimiento y desarrollo de su grupo.
+Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
+AssSkill:统率技能伊潘图</t>
+  </si>
+  <si>
+    <t>Like:乐器|绘画
+Desc:Yaksha, una mujer aparentemente común de la estirpe de los Maestros de las Bestias, oculta un don extraordinario. A diferencia de otros miembros de su linaje, no puede transformarse en una bestia, pero posee la habilidad única de apaciguar a las personas de otras tribus. A pesar de su apariencia ordinaria, Yaksha carga con un anhelo profundo: liberar a su pueblo de una antigua maldición. Con el fin de aprender cómo curar a su familia y desentrañar el enigma que ha afectado a su linaje durante generaciones, Yaksha busca unirse a la prestigiosa Sociedad de la Rosa Blanca.
+Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
+AssSkill:统率技能希也</t>
+  </si>
+  <si>
+    <t>Desc:El Maestro del Vacío Ifrit es el líder de los Ifrit. Cuando la Diosa del Río selló a los Ifrit, estos crearon una barrera que impide al mundo exterior detectar los poderes y la ubicación del Maestro del Vacío Ifrit. ¿El costo? Su lento deterioro hasta llegar a su estado actual.
+Atrapados tras la barrera, los Ifrit han sufrido un declive constante. El Maestro del Vacío Ifrit, en su papel de líder, ha enfrentado el desafío de guiar a su pueblo en medio de la desaparición gradual de su antiguo esplendor. Mientras el mundo exterior desconoce su existencia, el Maestro del Vacío Ifrit lucha por preservar la identidad y los poderes de su raza, buscando una forma de liberarse de la barrera y restaurar su gloria perdida. Enfrentando la incertidumbre y desafiando los obstáculos, el Maestro del Vacío Ifrit se convierte en el faro de esperanza para los suyos, impulsándolos a superar su actual estado y recuperar su antigua grandeza.
+IsNoExpel:1
+IsNoBetray:1</t>
+  </si>
+  <si>
+    <t>Ifrit-Maestro del Vacío</t>
+  </si>
+  <si>
+    <t>Desc:Rimmon es el Comandante de las fuerzas Ifrit y el consejero de confianza del Maestro del Vacío Ifrit. Destaca por su imponente estatura, incluso entre los Ifrit. Desde siempre, Rimmon ha abogado por la conquista de la humanidad y personalmente ha liderado al ejército Ifrit en la batalla de Salzaar.
+Con su presencia imponente y su habilidad estratégica, Rimmon se ha convertido en una figura central en la toma de decisiones militares de los Ifrit. Su posición como comandante y consejero le otorga una influencia significativa sobre el rumbo de las acciones del pueblo Ifrit.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Thamuz, quizás el más antiguo de todos los Ifrit, fue un alto sacerdote entre su pueblo antes de que el Maestro del Vacío Ifrit asumiera el liderazgo. No subestimes sus habilidades solo por su frágil apariencia.
+A pesar de su aspecto frágil, Thamuz posee una sabiduría y un poder que se han forjado a lo largo de los años. Su antigua posición como sacerdote le ha otorgado un profundo conocimiento de los misterios y rituales de los Ifrit, así como una conexión especial con las energías y fuerzas que los rodean.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Yamuz es el aprendiz favorito de Thamuz y uno de los cuatro subcomandantes de Rimmon. Aunque relativamente joven, Yamuz ha dominado la mayoría de las terroríficas artes arcanas de Thamuz.
+Bajo la tutela de Thamuz, Yamuz ha demostrado un talento excepcional y una asimilación rápida de los conocimientos arcanos. Ha absorbido las enseñanzas de Thamuz con dedicación y ha perfeccionado sus habilidades místicas a un nivel impresionante.
+La relación maestro-aprendiz entre Thamuz y Yamuz ha permitido que este último adquiera un dominio profundo de las arcanas que alguna vez fueron exclusivas de Thamuz. Yamuz ha desarrollado su propia destreza y versatilidad, combinando su juventud y energía con la sabiduría ancestral transmitida por su maestro.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Shaka es una veterana del ejército de los Ifrit. Anhela regresar a Salzaar para recobrar la gloria y el honor de sus años pasados.
+Con una larga experiencia en el campo de batalla, Shaka ha participado en numerosas campañas y ha enfrentado desafíos formidables. Sin embargo, la llamada de Salzaar ha resonado en su interior, despertando un deseo ardiente de volver y demostrar una vez más su valía.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Dago es uno de los cuatro subcomandantes de Rimmon. Su lealtad hacia el Maestro del Vacío Ifrit es absoluta, incluso hasta la muerte.
+Dago ha demostrado ser un fiel seguidor y defensor del Maestro del Vacío Ifrit. Su devoción y lealtad son inquebrantables, y está dispuesto a sacrificarlo todo por su líder y por la causa de los Ifrit.
+Como subcomandante de Rimmon, Dago es una presencia imponente en el campo de batalla. Su habilidad para inspirar a las tropas y su dedicación a la misión los guían hacia la victoria.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Ahriman sirve directamente bajo el mando de Rimmon como uno de los cuatro subcomandantes y se encarga de explorar y vigilar por delante de las principales fuerzas de los Ifrit.
+Como subcomandante y explorador principal, Ahriman desempeña un papel esencial en la estrategia y planificación de las operaciones de los Ifrit. Su misión es adelantarse y recopilar información crucial sobre el terreno, los enemigos potenciales y los posibles obstáculos que puedan surgir en el camino de las fuerzas principales.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Cimeri, en un principio, era un erudito encargado de registrar la historia de su pueblo, los Ifrit. Sin embargo, tras ser desterrado por la Diosa del Río, su enfoque cambió drásticamente. Cimeri se sumergió en el estudio de las artes arcanas con fervor, movido por un deseo de venganza, y se convirtió en uno de los subcomandantes de Rimmon.
+La pasión por buscar venganza consumió a Cimeri después de su destierro de la sociedad de los Ifrit. Su devoción a las artes arcanas se intensificó, y su objetivo se transformó en aprovechar sus nuevos conocimientos para derrotar a aquellos que les habían causado tanto dolor y sufrimiento.
+Como subcomandante de Rimmon, Cimeri desempeña un papel importante en las operaciones y estrategias de los Ifrit.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Agni es quizás el más enfurecido de todos los Ifrit y desatará su ira sobre aquellos que estén más cerca.
+Agni encarna una furia desbordante que arde en su interior. Su temperamento volátil puede desencadenarse fácilmente y, en su furia, buscará liberar su ira sobre aquellos que estén a su alcance.
+Como uno de los Ifrit más enojados, Agni es conocido por su explosiva agresividad. Su ira es como un fuego descontrolado que consume todo a su paso. Enfrentarse a Agni puede ser una experiencia temible, ya que su rabia puede manifestarse de manera destructiva y caótica.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Like:乐器|神秘
+Desc:Malek comenzó su vida adulta como mercenario, pero fue perfeccionando su talento en el arte de la magia. Tras mejorar sus habilidades, Malek decidió convertirse en un hechicero a tiempo completo. Se unió al Gremio de los Magos en la Ciudad de Amaranth y trabaja como investigador especializado en todo lo relacionado con lo arcano.
+La transición de Malek de mercenario a hechicero refleja su dedicación y pasión por el dominio de la magia. A medida que perfeccionaba sus habilidades mágicas, decidió emplear su conocimiento y poderes en el servicio de la investigación arcanica.
+En su rol como investigador especial, Malek tiene la tarea de explorar y desentrañar los misterios y secretos del mundo de la magia.
+Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
+AssSkill:统率技能马可</t>
+  </si>
+  <si>
+    <t>Like:神秘|故事|特殊装备
+Desc:Khaldun no siempre habla de su pasado. Antes, era un astuto y paciente mago del clan Dakn, dispuesto a emplear cualquier medio para alcanzar sus objetivos. Sin embargo, en algún momento, se negó de alguna manera a utilizar la magia espiritual.
+Aunque Khaldun guarda silencio sobre su pasado, su cambio de actitud hacia la magia espiritual ha dejado una profunda impresión en su vida y en su camino actual. Anteriormente conocido por su astucia y paciencia como mago Dakn, Khaldun ha encontrado una razón para rechazar el uso de la magia espiritual y ha decidido seguir un camino diferente.
+La negativa de Khaldun a emplear la magia espiritual puede estar fundamentada en varias motivaciones personales o eventos significativos de su vida. Esta elección puede reflejar un cambio en sus valores, una nueva perspectiva sobre el uso de la magia o tal vez una experiencia traumática que lo ha llevado a reconsiderar su enfoque anterior.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能柯墨斯</t>
   </si>
 </sst>
 </file>
@@ -603,44 +714,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -991,18 +1105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.125" customWidth="1"/>
-    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
       <c r="A1" s="8" t="s">
@@ -1040,14 +1147,14 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
+      <c r="E2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>97</v>
+      <c r="G2" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5">
@@ -1063,17 +1170,17 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
+      <c r="E3" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135">
+      <c r="G3" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1086,17 +1193,17 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1104,387 +1211,387 @@
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="94.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="189">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="148.5">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="162">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>104</v>
+        <v>33</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="94.5">
+    <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="94.5">
+        <v>38</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="148.5">
+        <v>41</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="148.5">
+        <v>44</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="108">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="94.5">
-      <c r="A16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="94.5">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="81">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.5">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="67.5">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="67.5">
+        <v>64</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="409.5">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="67.5">
+        <v>68</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.5">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="67.5">
+        <v>72</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.5">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="67.5">
+        <v>76</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.5">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="67.5">
+        <v>80</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="409.5">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="108">
+        <v>84</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.5">
       <c r="A25" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="94.5">
+        <v>87</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.5">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF9C34-17BA-4F7C-8B11-94DA82D3198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED4B86-EB87-4D36-A1F8-8564D2A1887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -105,16 +105,10 @@
     <t>云瑕</t>
   </si>
   <si>
-    <t>Halcyon</t>
-  </si>
-  <si>
     <t>attached_script:白狮地牢地城_云暇</t>
   </si>
   <si>
     <t>弦萝</t>
-  </si>
-  <si>
-    <t>Dahlia</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>灰雪</t>
-  </si>
-  <si>
-    <t>Threnody</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -152,9 +143,6 @@
   </si>
   <si>
     <t>洛维莎</t>
-  </si>
-  <si>
-    <t>Tasha</t>
   </si>
   <si>
     <t>Like:历史|特殊装备|音乐
@@ -187,9 +175,6 @@
     <t>雷毅</t>
   </si>
   <si>
-    <t>Laik</t>
-  </si>
-  <si>
     <t>Like:历史|特殊装备|格斗
 Desc:雷毅是一个野心家，同时也是一个冷酷的军人。他是白狮部落资历最老的军团长之一，却不甘于此，有人说他有一天会取代成为白狮的新首领。
 Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
@@ -199,9 +184,6 @@
     <t>隆达</t>
   </si>
   <si>
-    <t>Rabia</t>
-  </si>
-  <si>
     <t>Like:乐器|绘画
 Desc:隆达曾经隶属于野火组织，是上一任野火首领的挚友。野火本人，也就是该组织的前首领，他已经身患重疾，无法带领野火组织寻找一个光明的未来，于是他将组织的命运交付给隆达。隆达接到野火秘密指令，假意投靠雄鹰部落，指引雄鹰部落取得野火项上人头。组织中剩下的成员一部分被隆达招降，另一部分跟随了组织成员伊潘图。隆达在霍驹手下小心翼翼地保护着曾经的兄弟们，守护着野火与他的秘密约定。
 Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
@@ -211,9 +193,6 @@
     <t>伊潘图</t>
   </si>
   <si>
-    <t>Ishtar</t>
-  </si>
-  <si>
     <t>Like:珠宝|神秘
 Desc:伊潘图曾经隶属于野火组织，在上一任野火首领遇袭后，伊潘图选择了带领野火余党继续发展壮大。伊潘图生性贪婪，对于金钱没有一丝抵抗力，这样的贪婪让他为眼前的蝇头小利所束缚，眼光无法放得足够长远，这也注定了野火组织交到他手上很难有一个很大的发展。伊潘图认为上一任野火首领之死与曾经的队友隆达脱不了干系，所以伊潘图一直在寻找隆达，他立誓要为前首领报仇雪恨。
 Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
@@ -307,9 +286,6 @@
     <t>司焱</t>
   </si>
   <si>
-    <t>Dago</t>
-  </si>
-  <si>
     <t>Desc:司焱是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -322,9 +298,6 @@
     <t>阿戈斯</t>
   </si>
   <si>
-    <t>Ahriman</t>
-  </si>
-  <si>
     <t>Desc:阿戈斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -337,9 +310,6 @@
     <t>提尔瑞斯</t>
   </si>
   <si>
-    <t>Cimeri</t>
-  </si>
-  <si>
     <t>Desc:提尔瑞斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -388,202 +358,121 @@
 AssSkill:统率技能柯墨斯</t>
   </si>
   <si>
-    <t>喜欢的礼物: Yo... bueno, me gusta &lt;color=red&gt;pintar&lt;/color&gt;... No, por favor, no es necesario que me regales nada.
-hello: ¡Oh, eres tú. ¿Necesitas algo?
-refuse_recruit_0: Lo siento, debo continuar con mi investigación.
-refuse_recruit_1: Lo siento, en este momento mis compromisos no me permiten hacerlo.
-refuse_recruit_2: Algo parece haber cambiado en ti... No estoy seguro de qué exactamente, pero... quizás nuestros objetivos no se encuentren en el mismo camino.
-refuse_recruit_3:... No tengo nada que decirte.
-recruit_msg: ¿De verdad? ¡Me encantaria!</t>
-  </si>
-  <si>
-    <t>Like:绘画
-Desc:Nassant es un mago oscuro, pero, a diferencia de los estereotipos populares, utiliza sus habilidades para la curación en un mundo donde la magia de curación está dominada por la Rosa Blanca. Su dedicación ha salvado muchas vidas, pero también le ha ganado varios enemigos.
-Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
-AssSkill:统率技能南松</t>
-  </si>
-  <si>
-    <t>喜欢的礼物：¡Un regalo! ¡Genial! Hay muchas cosas que quiero... &lt;color=red&gt;libros de historias&lt;/color&gt;, &lt;color=red&gt;equipamiento especial&lt;/color&gt;, &lt;color=red&gt;artesanías&lt;/color&gt;, &lt;color=red&gt;baratijas&lt;/color&gt;...
-hello: ¿Necesitas algo?
-refuse_recruit_0: Quiero intentar forjar mi propio camino.
-refuse_recruit_1: Quiero intentar lograrlo por mis propios medios.
-refuse_recruit_2: Siento que últimamente hemos tenido algunas... diferencias.
-refuse_recruit_3: ¿Hice algo mal?
-recruit_msg: ¡Finalmente!</t>
-  </si>
-  <si>
-    <t>Like:故事|特殊装备|工艺|装饰
-Desc:Zeynep, la hermana menor de tu amada esposa fallecida, es un espíritu lleno de vitalidad y travesuras. Desde su infancia, su energía y alegría han iluminado cada rincón de tu vida. Con su sonrisa contagiosa y su ingenio travieso, Zeynep ha sido una fuente constante de diversión y aventura.
-Sin embargo, detrás de su personalidad vivaz, Zeynep también lleva consigo un profundo amor y afecto por su hermana, tu esposa fallecida. Su vínculo especial las unía de manera inquebrantable, y aunque su ausencia dejó un vacío en el corazón de Zeynep, su espíritu persiste como un recordatorio constante de la belleza y la alegría que su hermana trajo a sus vidas.
-Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能阿绫</t>
-  </si>
-  <si>
-    <t>喜欢的礼物: ¡Cómo te atreves a hablarme siquiera!
-hello: ¡Tú! ¡Esta vez no me contendré!
-refuse_recruit_0: ¡Nunca! Te despreciaré hasta el fin de los tiempos...
-recruit_msg: Nunca me perdonaré por esto…</t>
-  </si>
-  <si>
-    <t>Desc:Leena, una mujer encantadora que afirma ser de Dunestorm, en realidad es la hija del capitán de la guardia de la ciudad de Jamal. Ella cree que un Spiritmancer de Nasir mató a su padre y hermano.
-Su corazón está lleno de dolor y sed de venganza. Leena ha dedicado su vida a buscar justicia para su familia, convencida de que los responsables deben pagar por sus crímenes. Su determinación y habilidades la han llevado a convertirse en una guerrera formidable.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
-AssSkill:统率技能萧雅</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Dahlia, también conocida como Halcyon, alguna vez fue una bruja respetada dentro de la Sociedad de la Rosa Blanca. Sin embargo, su vida dio un giro oscuro cuando se encontró bajo arresto domiciliario impuesto por Rebiya, la Reina de los Dakn. En un acto retorcido de manipulación, Dahlia fue obligada a crear un polvo mágico potente en contra de su voluntad. Este polvo, hábilmente utilizado por Rebiya, fue utilizado para paralizar a Hassan, el propio hermano de Dahlia y antiguo líder de los Dakn. Ahora cargada de culpa y remordimiento, el camino de Dahlia está entrelazado con la desesperada búsqueda de liberarse de las garras de Rebiya y buscar redención por sus acciones.
-Impulsada por su nuevo alias, Halcyon, Dahlia se adentra en un mundo traicionero de intriga y secretos. Determinada a derrocar el reinado tiránico de Rebiya, busca alianzas y estrategias improbables para liberar a Hassan y desmantelar el régimen opresivo. Cada movimiento que realiza está lleno de peligro, y las consecuencias de sus decisiones pesan fuertemente en su conciencia. Mientras navega por las sombras de su pasado, Dahlia enfrenta un dilema moral, dividida entre su seguridad personal y el bien común. Su viaje se convierte en una prueba de su resiliencia, mientras busca restaurar la armonía y la justicia en un mundo manchado por la traición y la opresión.
-Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
-AssSkill:统率技能弦萝</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Dotada de un talento extraordinario para la magia, Threnody nació para ser una bruja. Se suponía que sería elegida para ir a la Ciudad del Cielo y continuar su entrenamiento en el camino hacia la grandeza. Sin embargo, los Furud la abandonaron cuando se predijo que no tenía futuro, ya que la magia fluía de Threnody de una manera que ella no podía controlar, condenándola eventualmente a agotar su reserva de poder y, por ende, su vida. Threnody dejó su hogar y a su familia, buscando tomar su destino en sus propias manos y demostrar a los Furud que ningún destino está escrito en piedra.
-Voice:NpcVoice.huixue
-BattleVoice:BattleVoice.huixue
-Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
-AssSkill:统率技能灰雪</t>
-  </si>
-  <si>
-    <t>Like:故事|格斗
-Desc:Desde muy joven, Omar se ganó la reputación de ser un espíritu indomable. El padre de Omar era un famoso comerciante en la región de las Montañas Zagros y abandonó a la madre de Omar por otra mujer cuando este tenía 14 años. Esto provocó una relación tensa entre Omar, su padre y su madrastra, una relación que amenazaba con convertirse en hostilidad abierta, hasta que por casualidad descubrió la verdad...
-Voice:NpcVoice.hupo
-BattleVoice:BattleVoice.hupo
-Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能琥珀</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|音乐
-WildMonsterKiller:1
-Desc:La exploradora Tasha se adentra en ruinas antiguas dispersas por toda la tierra, buscando descubrir el pasado oculto bajo las arenas. Ha visitado ciudades antiguas y palacios subterráneos, se ha enfrentado a maldiciones arcanas y ha escuchado las voces de los antiguos dioses. Tasha tiene como compañero a un solenodonte, cuyo mordisco venenoso, inmunidad a los venenos y habilidad para detectar el peligro le han sido de gran ayuda en sus travesías.
-Voice:NpcVoice.luoweisha
-BattleVoice:BattleVoice.luoweisha
-Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能洛维莎</t>
-  </si>
-  <si>
     <t>Mech Threnody (abandonado)</t>
   </si>
   <si>
-    <t>Like:历史|特殊装备
-Desc:Badis, un joven Comandante de los Shujae, se ha convertido en una figura destacada desde la partida del legendario "Jackal" de las filas de los Shujae. Con su liderazgo valiente y habilidades tácticas excepcionales, ha llevado a los mercenarios de los Shujae a una serie de victorias inigualables.
-La ausencia del "Jackal" creó un vacío en el corazón de los Shujae, pero Badis ha demostrado ser un digno sucesor. Con su audacia y determinación, ha sabido ganarse el respeto y la lealtad de sus compañeros. Bajo su mando, los Shujae han alcanzado nuevas cotas de éxito en el campo de batalla, enfrentándose a desafíos formidables y emergiendo victoriosos.
-Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能长孙弘</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|格斗
-Desc:Laik es un mercenario de alto rango altamente ambicioso de los Shujae. Es uno de los miembros más antiguos de la organización y alberga la esperanza de servir algún día como su líder.
-Desde sus primeros días como mercenario, Laik ha demostrado una habilidad excepcional en el campo de batalla y una determinación implacable para alcanzar la cima. Su lealtad y dedicación a los Shujae han sido inquebrantables, lo que le ha permitido ascender a un puesto de alto rango dentro de la organización.
-Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
-AssSkill:统率技能雷毅</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Rabia, exmiembro de la Pandilla Wildfire y amigo del fundador que le dio nombre, se unió al clan Nasir por instrucciones de Wildfire, quien estaba gravemente enfermo. Bajo su liderazgo, Rabia condujo al clan Nasir a tomar la cabeza de Wildfire. Convenció a muchos de los miembros de la pandilla para unirse al clan Nasir, mientras que el resto siguió a Ishtar. Ahora, bajo el mando de Husnu, Rabia continúa protegiendo a sus antiguos hermanos de la Pandilla Wildfire, cumpliendo así su promesa a Wildfire.
-La lealtad de Rabia hacia su amigo y fundador de la Pandilla Wildfire lo llevó a tomar decisiones difíciles y a embarcarse en un nuevo camino junto al clan Nasir. Su capacidad de persuasión fue clave para asegurar la transición de los miembros de la pandilla al nuevo clan. Aunque sus caminos se dividieron, Rabia sigue manteniendo su vínculo con aquellos que compartieron su pasado en la Pandilla Wildfire.
-Bajo el liderazgo de Husnu, Rabia ha encontrado un nuevo propósito en la protección y el apoyo a sus hermanos de la Pandilla Wildfire en su nueva afiliación con el clan Nasir. A pesar de los desafíos y las pruebas que enfrentan, Rabia se mantiene firme en su promesa de cuidar de ellos y asegurar su bienestar.
-Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能隆达</t>
-  </si>
-  <si>
-    <t>Like:珠宝|神秘
-Desc:Exmiembro de la Pandilla Wildfire, Ishtar se convirtió en el líder de sus restos cuando el líder anterior de la pandilla fue asesinado. La avaricia ha vuelto a Ishtar miope, limitando el potencial de su organización. Continúa buscando a Rabia, a quien cree responsable de la muerte del líder de la Pandilla Wildfire.
-Ishtar, como exmiembro de la Pandilla Wildfire, ascendió al liderazgo cuando su líder anterior fue asesinado. Sin embargo, su avaricia ha afectado su visión y ha restringido el potencial de su organización. Su enfoque estrecho y centrado en el beneficio personal ha limitado su capacidad para ver más allá de sus propios intereses, perjudicando así las oportunidades de crecimiento y desarrollo de su grupo.
-Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
-AssSkill:统率技能伊潘图</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Yaksha, una mujer aparentemente común de la estirpe de los Maestros de las Bestias, oculta un don extraordinario. A diferencia de otros miembros de su linaje, no puede transformarse en una bestia, pero posee la habilidad única de apaciguar a las personas de otras tribus. A pesar de su apariencia ordinaria, Yaksha carga con un anhelo profundo: liberar a su pueblo de una antigua maldición. Con el fin de aprender cómo curar a su familia y desentrañar el enigma que ha afectado a su linaje durante generaciones, Yaksha busca unirse a la prestigiosa Sociedad de la Rosa Blanca.
-Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
-AssSkill:统率技能希也</t>
-  </si>
-  <si>
-    <t>Desc:El Maestro del Vacío Ifrit es el líder de los Ifrit. Cuando la Diosa del Río selló a los Ifrit, estos crearon una barrera que impide al mundo exterior detectar los poderes y la ubicación del Maestro del Vacío Ifrit. ¿El costo? Su lento deterioro hasta llegar a su estado actual.
-Atrapados tras la barrera, los Ifrit han sufrido un declive constante. El Maestro del Vacío Ifrit, en su papel de líder, ha enfrentado el desafío de guiar a su pueblo en medio de la desaparición gradual de su antiguo esplendor. Mientras el mundo exterior desconoce su existencia, el Maestro del Vacío Ifrit lucha por preservar la identidad y los poderes de su raza, buscando una forma de liberarse de la barrera y restaurar su gloria perdida. Enfrentando la incertidumbre y desafiando los obstáculos, el Maestro del Vacío Ifrit se convierte en el faro de esperanza para los suyos, impulsándolos a superar su actual estado y recuperar su antigua grandeza.
-IsNoExpel:1
-IsNoBetray:1</t>
-  </si>
-  <si>
-    <t>Ifrit-Maestro del Vacío</t>
-  </si>
-  <si>
-    <t>Desc:Rimmon es el Comandante de las fuerzas Ifrit y el consejero de confianza del Maestro del Vacío Ifrit. Destaca por su imponente estatura, incluso entre los Ifrit. Desde siempre, Rimmon ha abogado por la conquista de la humanidad y personalmente ha liderado al ejército Ifrit en la batalla de Salzaar.
-Con su presencia imponente y su habilidad estratégica, Rimmon se ha convertido en una figura central en la toma de decisiones militares de los Ifrit. Su posición como comandante y consejero le otorga una influencia significativa sobre el rumbo de las acciones del pueblo Ifrit.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Thamuz, quizás el más antiguo de todos los Ifrit, fue un alto sacerdote entre su pueblo antes de que el Maestro del Vacío Ifrit asumiera el liderazgo. No subestimes sus habilidades solo por su frágil apariencia.
-A pesar de su aspecto frágil, Thamuz posee una sabiduría y un poder que se han forjado a lo largo de los años. Su antigua posición como sacerdote le ha otorgado un profundo conocimiento de los misterios y rituales de los Ifrit, así como una conexión especial con las energías y fuerzas que los rodean.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Yamuz es el aprendiz favorito de Thamuz y uno de los cuatro subcomandantes de Rimmon. Aunque relativamente joven, Yamuz ha dominado la mayoría de las terroríficas artes arcanas de Thamuz.
-Bajo la tutela de Thamuz, Yamuz ha demostrado un talento excepcional y una asimilación rápida de los conocimientos arcanos. Ha absorbido las enseñanzas de Thamuz con dedicación y ha perfeccionado sus habilidades místicas a un nivel impresionante.
-La relación maestro-aprendiz entre Thamuz y Yamuz ha permitido que este último adquiera un dominio profundo de las arcanas que alguna vez fueron exclusivas de Thamuz. Yamuz ha desarrollado su propia destreza y versatilidad, combinando su juventud y energía con la sabiduría ancestral transmitida por su maestro.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Shaka es una veterana del ejército de los Ifrit. Anhela regresar a Salzaar para recobrar la gloria y el honor de sus años pasados.
-Con una larga experiencia en el campo de batalla, Shaka ha participado en numerosas campañas y ha enfrentado desafíos formidables. Sin embargo, la llamada de Salzaar ha resonado en su interior, despertando un deseo ardiente de volver y demostrar una vez más su valía.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Dago es uno de los cuatro subcomandantes de Rimmon. Su lealtad hacia el Maestro del Vacío Ifrit es absoluta, incluso hasta la muerte.
-Dago ha demostrado ser un fiel seguidor y defensor del Maestro del Vacío Ifrit. Su devoción y lealtad son inquebrantables, y está dispuesto a sacrificarlo todo por su líder y por la causa de los Ifrit.
-Como subcomandante de Rimmon, Dago es una presencia imponente en el campo de batalla. Su habilidad para inspirar a las tropas y su dedicación a la misión los guían hacia la victoria.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Ahriman sirve directamente bajo el mando de Rimmon como uno de los cuatro subcomandantes y se encarga de explorar y vigilar por delante de las principales fuerzas de los Ifrit.
-Como subcomandante y explorador principal, Ahriman desempeña un papel esencial en la estrategia y planificación de las operaciones de los Ifrit. Su misión es adelantarse y recopilar información crucial sobre el terreno, los enemigos potenciales y los posibles obstáculos que puedan surgir en el camino de las fuerzas principales.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Cimeri, en un principio, era un erudito encargado de registrar la historia de su pueblo, los Ifrit. Sin embargo, tras ser desterrado por la Diosa del Río, su enfoque cambió drásticamente. Cimeri se sumergió en el estudio de las artes arcanas con fervor, movido por un deseo de venganza, y se convirtió en uno de los subcomandantes de Rimmon.
-La pasión por buscar venganza consumió a Cimeri después de su destierro de la sociedad de los Ifrit. Su devoción a las artes arcanas se intensificó, y su objetivo se transformó en aprovechar sus nuevos conocimientos para derrotar a aquellos que les habían causado tanto dolor y sufrimiento.
-Como subcomandante de Rimmon, Cimeri desempeña un papel importante en las operaciones y estrategias de los Ifrit.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Agni es quizás el más enfurecido de todos los Ifrit y desatará su ira sobre aquellos que estén más cerca.
-Agni encarna una furia desbordante que arde en su interior. Su temperamento volátil puede desencadenarse fácilmente y, en su furia, buscará liberar su ira sobre aquellos que estén a su alcance.
-Como uno de los Ifrit más enojados, Agni es conocido por su explosiva agresividad. Su ira es como un fuego descontrolado que consume todo a su paso. Enfrentarse a Agni puede ser una experiencia temible, ya que su rabia puede manifestarse de manera destructiva y caótica.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Like:乐器|神秘
-Desc:Malek comenzó su vida adulta como mercenario, pero fue perfeccionando su talento en el arte de la magia. Tras mejorar sus habilidades, Malek decidió convertirse en un hechicero a tiempo completo. Se unió al Gremio de los Magos en la Ciudad de Amaranth y trabaja como investigador especializado en todo lo relacionado con lo arcano.
-La transición de Malek de mercenario a hechicero refleja su dedicación y pasión por el dominio de la magia. A medida que perfeccionaba sus habilidades mágicas, decidió emplear su conocimiento y poderes en el servicio de la investigación arcanica.
-En su rol como investigador especial, Malek tiene la tarea de explorar y desentrañar los misterios y secretos del mundo de la magia.
-Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
-AssSkill:统率技能马可</t>
-  </si>
-  <si>
-    <t>Like:神秘|故事|特殊装备
-Desc:Khaldun no siempre habla de su pasado. Antes, era un astuto y paciente mago del clan Dakn, dispuesto a emplear cualquier medio para alcanzar sus objetivos. Sin embargo, en algún momento, se negó de alguna manera a utilizar la magia espiritual.
-Aunque Khaldun guarda silencio sobre su pasado, su cambio de actitud hacia la magia espiritual ha dejado una profunda impresión en su vida y en su camino actual. Anteriormente conocido por su astucia y paciencia como mago Dakn, Khaldun ha encontrado una razón para rechazar el uso de la magia espiritual y ha decidido seguir un camino diferente.
-La negativa de Khaldun a emplear la magia espiritual puede estar fundamentada en varias motivaciones personales o eventos significativos de su vida. Esta elección puede reflejar un cambio en sus valores, una nueva perspectiva sobre el uso de la magia o tal vez una experiencia traumática que lo ha llevado a reconsiderar su enfoque anterior.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能柯墨斯</t>
+    <t>idílico</t>
+  </si>
+  <si>
+    <t>Dália</t>
+  </si>
+  <si>
+    <t>Trenody</t>
+  </si>
+  <si>
+    <t>tasha</t>
+  </si>
+  <si>
+    <t>leigo</t>
+  </si>
+  <si>
+    <t>Raiva</t>
+  </si>
+  <si>
+    <t>Istar</t>
+  </si>
+  <si>
+    <t>Ifrit-Mestre do Vazio</t>
+  </si>
+  <si>
+    <t>dago</t>
+  </si>
+  <si>
+    <t>Ahrimã</t>
+  </si>
+  <si>
+    <t>Cimério</t>
+  </si>
+  <si>
+    <t>喜欢的礼物: Eu... bem, eu gosto de &lt;color=red&gt;pintura&lt;/color&gt;... Não, por favor, você não precisa me dar nada. Olá: Ah, é você. Precisa de algo? recusar_recruit_0: Desculpe, preciso continuar com minha pesquisa. recusar_recruit_1: Desculpe, neste momento meus compromissos não me permitem fazer isso. recusar_recruit_2: Algo parece ter mudado em você... Não tenho certeza do que exatamente, mas... talvez nossos objetivos não estejam no mesmo caminho. recusar_recruit_3:...Não tenho nada para te contar. recruta_msg: Sério? Eu adoraria!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Um presente! Brilhante! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red&gt;bugigangas &lt;/color&gt;... olá: Você precisa de algo? recusar_recruit_0: Quero tentar traçar meu próprio caminho. recusar_recruit_1: Quero tentar conseguir isso sozinho. recusar_recruit_2: Sinto que tivemos algumas... diferenças ultimamente. recusar_recruit_3: Fiz algo errado? recruta_msg: Finalmente!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物: Como você ousa falar comigo! Olá! Desta vez não vou me conter! recusar_recruit_0: Nunca! Vou te desprezar até o fim dos tempos... recruta_msg: Nunca vou me perdoar por isso...</t>
+  </si>
+  <si>
+    <t>Como:绘画 Desc:Nassant é um bruxo das trevas, mas ao contrário dos estereótipos populares, ele usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu vários inimigos. Natureza: gentil = 8, severo = 2, honesto = 6, astúcia = 4, calmo = 5, raiva = 5, forte = 3, fraco = 7 Habilidade de bunda: 统率技能南松</t>
+  </si>
+  <si>
+    <t>Como:故事|特殊装备|工艺|装饰 Desc:Zeynep, a irmã mais nova de sua amada falecida esposa, é um espírito cheio de vitalidade e travessura. Desde a infância, sua energia e alegria iluminaram todos os cantos da sua vida. Com seu sorriso contagiante e humor travesso, Zeynep tem sido uma fonte constante de diversão e aventura. Porém, por trás de sua personalidade viva, Zeynep também carrega consigo um profundo amor e carinho por sua irmã, sua falecida esposa. O vínculo especial entre eles os uniu de forma inquebrável e, embora sua ausência tenha deixado um vazio no coração de Zeynep, seu espírito persiste como um lembrete constante da beleza e da alegria que sua irmã trouxe às suas vidas. Natureza: gentil = 9, severo = 1, honesto = 3, astúcia = 7, calmo = 2, raiva = 8, forte = 5, fraco = 5 Habilidade de bunda: 统率技能阿绫</t>
+  </si>
+  <si>
+    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, é na verdade filha do capitão da guarda municipal de Jamal. Ela acredita que um Spiritmancer de Nasir matou seu pai e irmão. Seu coração está cheio de dor e sede de vingança. Leena dedicou sua vida a buscar justiça para sua família, convencida de que os responsáveis devem pagar por seus crimes. Sua determinação e habilidades a levaram a se tornar uma guerreira formidável. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 8, fraco = 2 Habilidade de bunda: 统率技能萧雅</t>
+  </si>
+  <si>
+    <t>anexo_script:白狮地牢地城_云暇</t>
+  </si>
+  <si>
+    <t>Como:绘画|神秘 Desc:Dahlia, também conhecida como Halcyon, já foi uma bruxa respeitada dentro da Sociedade Rosa Branca. No entanto, sua vida tomou um rumo sombrio quando ele se viu em prisão domiciliar imposta por Rebiya, a Rainha do Dakn. Em um ato distorcido de manipulação, Dahlia foi forçada a criar um potente pó mágico contra sua vontade. Este pó, habilmente usado por Rebiya, foi usado para paralisar Hassan, irmão de Dahlia e ex-líder dos Dakn. Agora sobrecarregada de culpa e remorso, o caminho de Dahlia está entrelaçado com sua busca desesperada para se libertar das garras de Rebiya e buscar a redenção por suas ações. Impulsionada por seu novo pseudônimo, Halcyon, Dahlia mergulha em um mundo traiçoeiro de intrigas e segredos. Determinada a derrubar o reinado tirânico de Rebiya, ela procura alianças e estratégias improváveis para libertar Hassan e desmantelar o regime opressivo. Cada movimento que ele faz é repleto de perigos e as consequências de suas decisões pesam em sua consciência. Enquanto navega pelas sombras do seu passado, Dahlia enfrenta um dilema moral, dividida entre a sua segurança pessoal e o bem maior. A sua jornada torna-se um teste à sua resiliência, à medida que ela procura restaurar a harmonia e a justiça num mundo manchado pela traição e pela opressão. Natureza: gentil = 5, severo = 5, honesto = 3, astúcia = 7, calmo = 8, raiva = 2, forte = 6, fraco = 4 Habilidade de bunda: 统率技能弦萝</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘 Desc:Dotada de um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela deveria ser escolhida para ir para a Cidade do Céu e continuar seu treinamento no caminho da grandeza. No entanto, o Furud a abandonou quando foi previsto que ela não tinha futuro, já que a magia fluía de Threnody de uma forma que ela não podia controlar, eventualmente condenando-a a esgotar sua reserva de poder e, portanto, sua vida. Threnody deixou sua casa e família, buscando tomar seu destino em suas próprias mãos e provar ao Furud que nenhum destino é imutável. Voz:NpcVoice.huixue BattleVoice:BattleVoice.huixue Natureza:tipo=7,severo=3,honesto=7,astúcia=3,calma=4,raiva=6,forte=2,fraco=8 AssSkill:统率技能灰雪</t>
+  </si>
+  <si>
+    <t>Like:故事|格斗 Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito indomável. O pai de Omar era um comerciante famoso na região das montanhas Zagros e abandonou a mãe de Omar por outra mulher quando ele tinha 14 anos. Isso causou uma relação tensa entre Omar, seu pai e sua madrasta, uma relação que ameaçava se transformar em hostilidade aberta, até que por acaso ele descobriu a verdade... Voice:NpcVoice.hupo BattleVoice:BattleVoice.hupo Nature:kind=6 , severo = 3, honesto = 8, astúcia = 2, calmo = 2, raiva = 8, forte = 5, fraco = 5 AssHabilidade:统率技能琥珀</t>
+  </si>
+  <si>
+    <t>Como:历史|特殊装备|音乐 WildMonsterKiller:1 Desc:Explorer Tasha investiga ruínas antigas espalhadas pela terra, procurando descobrir o passado escondido sob as areias. Ele visitou cidades antigas e palácios subterrâneos, enfrentou maldições arcanas e ouviu as vozes de deuses antigos. O companheiro de Tasha é um solenodonte, cuja mordida venenosa, imunidade a venenos e capacidade de detectar perigos a ajudaram muito em suas viagens. Voz:NpcVoice.luoweisha BattleVoice:BattleVoice.luoweisha Natureza:tipo=6,severo=4,honesto=5,astúcia=5,calma=9,raiva=1,forte=8,fraco=2 AssSkill:统率技能洛维莎</t>
+  </si>
+  <si>
+    <t>Como:历史|特殊装备 Desc:Badis, um jovem comandante dos Shujae, tornou-se uma figura proeminente desde a saída do lendário "Chacal" das fileiras dos Shujae. Com sua liderança corajosa e habilidades táticas excepcionais, ele liderou os mercenários Shujae a uma série de vitórias incomparáveis. A ausência do “Chacal” criou um vazio nos corações dos Shujae, mas Badis provou ser um sucessor digno. Com sua audácia e determinação, conseguiu conquistar o respeito e a lealdade de seus colegas. Sob seu comando, os Shujae alcançaram novos patamares de sucesso no campo de batalha, enfrentando desafios formidáveis e emergindo vitoriosos. Natureza: gentil = 6, severo = 4, honesto = 6, astúcia = 4, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能长孙弘</t>
+  </si>
+  <si>
+    <t>Como:历史|特殊装备|格斗 Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos da organização e espera um dia servir como seu líder. Desde seus primeiros dias como mercenário, Laik demonstrou habilidade excepcional no campo de batalha e determinação incansável para chegar ao topo. Sua lealdade e dedicação aos Shujae têm sido inabaláveis, permitindo-lhe ascender a uma posição de alto escalão dentro da organização. Natureza: gentil = 2, severo = 8, honesto = 2, astúcia = 8, calmo = 5, raiva = 5, forte = 7, fraco = 3 Habilidade de bunda: 统率技能雷毅</t>
+  </si>
+  <si>
+    <t>Como:乐器|绘画 Desc:Rabia, um ex-membro da Gangue Wildfire e amigo do fundador que lhe deu o nome, juntou-se ao clã Nasir por instruções de Wildfire, que estava gravemente doente. Sob sua liderança, Rabia liderou o clã Nasir para assumir a liderança do Wildfire. Ele convenceu muitos membros da gangue a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora, sob o comando de Husnu, Rabia continua a proteger seus ex-irmãos da Gangue Wildfire, cumprindo assim sua promessa ao Wildfire. A lealdade de Rabia ao seu amigo e fundador da Gangue Wildfire o levou a tomar decisões difíceis e embarcar em um novo caminho com o clã Nasir. Sua capacidade de persuasão foi fundamental para garantir a transição dos membros da gangue para o novo clã. Embora seus caminhos tenham divergido, Rabia continua mantendo seu vínculo com aqueles que compartilharam seu passado na Gangue Wildfire. Sob a liderança de Husnu, Rabia encontrou um novo propósito ao proteger e apoiar seus irmãos da Gangue Wildfire em sua nova afiliação ao clã Nasir. Apesar dos desafios e provações que enfrentam, Rabia permanece firme na sua promessa de cuidar deles e garantir o seu bem-estar. Natureza: gentil = 5, severo = 5, honesto = 8, astúcia = 2, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能隆达</t>
+  </si>
+  <si>
+    <t>Como:珠宝|神秘 Desc: Ex-membro da Gangue Wildfire, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da gangue foi morto. A ganância tornou Ishtar míope, limitando o potencial de sua organização. Ele continua procurando por Rabia, que ele acredita ser o responsável pela morte do líder da Gangue Wildfire. Ishtar, como ex-membro da Gangue Wildfire, ascendeu à liderança quando seu líder anterior foi morto. No entanto, a sua ganância afetou a sua visão e restringiu o potencial da sua organização. O seu foco estreito no ganho pessoal limitou a sua capacidade de ver além dos seus próprios interesses, prejudicando assim as oportunidades de crescimento e desenvolvimento do seu grupo. Natureza: gentil = 4, severo = 6, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 3, fraco = 7 Habilidade de bunda: 统率技能伊潘图</t>
+  </si>
+  <si>
+    <t>Como:乐器|绘画 Desc:Yaksha, uma mulher aparentemente comum da linhagem dos Mestres das Feras, esconde um dom extraordinário. Ao contrário de outros membros de sua linhagem, ele não pode se transformar em uma fera, mas possui a habilidade única de apaziguar pessoas de outras tribos. Apesar de sua aparência comum, Yaksha carrega um desejo profundo: libertar seu povo de uma antiga maldição. Para aprender como curar sua família e desvendar o enigma que atormenta sua linhagem há gerações, Yaksha busca ingressar na prestigiosa Sociedade Rosa Branca. Natureza: gentil = 8, severo = 2, honesto = 7, astúcia = 3, calmo = 9, raiva = 1, forte = 6, fraco = 4 AssHabilidade: 统率技能希也</t>
+  </si>
+  <si>
+    <t>Desc:The Void Master Ifrit é o líder do Ifrit. Quando a Deusa do Rio selou o Ifrit, eles criaram uma barreira que impede o mundo exterior de detectar os poderes e a localização do Mestre do Vazio Ifrit. O custo? Sua lenta deterioração até atingir o estado atual. Presos atrás da barreira, os Ifrit sofreram um declínio constante. O Mestre do Vazio Ifrit, em seu papel de líder, enfrentou o desafio de guiar seu povo em meio ao desaparecimento gradual de seu antigo esplendor. Enquanto o mundo exterior desconhece a sua existência, o Mestre do Vazio Ifrit luta para preservar a identidade e os poderes da sua raça, procurando uma forma de se libertar da barreira e restaurar a sua glória perdida. Enfrentando incertezas e desafiando obstáculos, o Mestre do Vazio Ifrit se torna o farol de esperança para seu povo, incitando-os a superar seu estado atual e recuperar sua antiga grandeza. IsNoExpel:1 IsNoBetray:1</t>
+  </si>
+  <si>
+    <t>Desc:Rimmon é o Comandante das forças Ifrit e o conselheiro de confiança do Mestre do Vazio Ifrit. Destaca-se pela sua estatura imponente, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit na Batalha de Salzaar. Com a sua presença dominante e habilidade estratégica, Rimmon tornou-se uma figura central na tomada de decisões militares do Ifrit. A sua posição como comandante e conselheiro confere-lhe uma influência significativa sobre a direção das ações do povo Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Thamuz, talvez o mais velho de todos os Ifrit, era um sumo sacerdote entre seu povo antes do Mestre do Vazio Ifrit assumir a liderança. Não subestime suas habilidades apenas por causa de sua aparência frágil. Apesar de sua aparência frágil, Thamuz possui uma sabedoria e um poder que foram forjados ao longo dos anos. A sua antiga posição como sacerdote deu-lhe um profundo conhecimento dos mistérios e rituais do Ifrit, bem como uma ligação especial às energias e forças que os rodeiam. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro subcomandantes de Rimmon. Embora relativamente jovem, Yamuz dominou a maioria das terríveis artes arcanas de Thamuz. Sob a tutela de Thamuz, Yamuz demonstrou talento excepcional e rápida assimilação de conhecimento arcano. Ele absorveu os ensinamentos de Thamuz com dedicação e aprimorou suas habilidades místicas a um nível impressionante. A relação mestre-aprendiz entre Thamuz e Yamuz permitiu que este último ganhasse profundo domínio dos arcanos que antes eram exclusivos de Thamuz. Yamuz desenvolveu habilidade e versatilidade próprias, aliando sua juventude e energia à sabedoria ancestral transmitida por seu professor. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Shaka é um veterano do exército Ifrit. Ele deseja retornar a Salzaar para recuperar a glória e a honra de seus últimos anos. Com vasta experiência em campo de batalha, Shaka participou de inúmeras campanhas e enfrentou desafios formidáveis. No entanto, o chamado de Salzaar ressoou dentro dele, despertando um desejo ardente de retornar e provar seu valor mais uma vez. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Dago é um dos quatro subcomandantes de Rimmon. Sua lealdade ao Mestre do Vazio Ifrit é absoluta, até a morte. Dago provou ser um fiel seguidor e defensor do Void Master Ifrit. Sua devoção e lealdade são inabaláveis, e ele está disposto a sacrificar tudo por seu líder e pela causa do Ifrit. Como vice-comandante de Rimmon, Dago é uma presença imponente no campo de batalha. Sua capacidade de inspirar as tropas e sua dedicação à missão guiam-nas à vitória. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Ahriman serve diretamente sob o comando de Rimmon como um dos quatro subcomandantes e é encarregado de reconhecimento e vigilância à frente das forças principais do Ifrit. Como vice-comandante e chefe dos batedores, Ahriman desempenha um papel essencial na elaboração de estratégias e no planejamento das operações Ifrit. Sua missão é seguir em frente e coletar informações cruciais sobre o terreno, possíveis inimigos e possíveis obstáculos que possam surgir no caminho das forças principais. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Cimeri, originalmente, era um estudioso encarregado de registrar a história de seu povo, o Ifrit. Porém, após ser banido pela Deusa do Rio, seu foco mudou drasticamente. Cimeri mergulhou no estudo das artes arcanas com fervor, movido pelo desejo de vingança, e se tornou um dos vice-comandantes de Rimmon. A paixão pela vingança consumiu Cimeri após seu banimento da sociedade Ifrit. Sua devoção às artes arcanas se intensificou e seu objetivo passou a ser aproveitar seu conhecimento recém-adquirido para derrotar aqueles que lhes causaram tanta dor e sofrimento. Como vice-comandante de Rimmon, Cimeri desempenha um papel importante nas operações e estratégias do Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Agni é talvez o mais enfurecido de todos os Ifrit e irá liberar sua ira sobre aqueles que estão mais próximos. Agni incorpora uma fúria transbordante que arde dentro dele. Seu temperamento volátil pode ser facilmente desencadeado e, em sua fúria, ele tentará liberar sua ira sobre aqueles que estão ao seu alcance. Como um dos Ifrit mais raivosos, Agni é conhecido por sua agressividade explosiva. Sua raiva é como um fogo descontrolado que consome tudo em seu caminho. Confrontar Agni pode ser uma experiência assustadora, pois sua raiva pode se manifestar de forma destrutiva e caótica. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Como:乐器|神秘 Desc:Malek começou sua vida adulta como mercenário, mas aprimorou seu talento na arte da magia. Depois de melhorar suas habilidades, Malek decidiu se tornar um feiticeiro em tempo integral. Ele se juntou à Guilda dos Magos em Amaranth City e trabalha como pesquisador especializado em todas as coisas misteriosas. A transição de Malek de mercenário para feiticeiro reflete sua dedicação e paixão por dominar a magia. À medida que aprimorava suas habilidades mágicas, ele decidiu empregar seu conhecimento e poderes a serviço da pesquisa arcana. No seu papel de investigador especial, Malek tem a tarefa de explorar e desvendar os mistérios e segredos do mundo da magia. Natureza: gentil = 6, severo = 4, honesto = 7, astúcia = 3, calmo = 6, raiva = 4, forte = 5, fraco = 5 Habilidade de bunda: 统率技能马可</t>
+  </si>
+  <si>
+    <t>Tipo:神秘|故事|特殊装备 Desc:Khaldun nem sempre fala sobre seu passado. Antes, ele era um mago astuto e paciente do clã Dakn, disposto a usar qualquer meio para atingir seus objetivos. No entanto, em algum momento, ele de alguma forma se recusou a usar magia espiritual. Embora Khaldun permaneça em silêncio sobre seu passado, sua mudança de atitude em relação à magia espiritual deixou uma profunda impressão em sua vida e em seu caminho atual. Anteriormente conhecido por sua astúcia e paciência como mago Dakn, Khaldun encontrou um motivo para rejeitar o uso de magia espiritual e decidiu seguir um caminho diferente. A recusa de Khaldun em usar magia espiritual pode ser baseada em várias motivações pessoais ou eventos significativos em sua vida. Esta escolha pode refletir uma mudança nos seus valores, uma nova perspectiva sobre o uso da magia, ou talvez uma experiência traumática que o tenha feito reconsiderar a sua abordagem anterior. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 9, raiva = 1, forte = 8, fraco = 2 Habilidade de bunda: 统率技能柯墨斯</t>
   </si>
 </sst>
 </file>
@@ -715,46 +604,46 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -1105,11 +994,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
       <c r="A1" s="8" t="s">
@@ -1148,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5">
@@ -1171,16 +1065,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="405">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5">
@@ -1211,387 +1105,387 @@
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.5">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.5">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.5">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.5">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.5">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.5">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="409.5">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="409.5">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="297">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="189">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="409.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="216">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="189">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="409.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="189">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="202.5">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="202.5">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="409.5">
       <c r="A25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="409.5">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED4B86-EB87-4D36-A1F8-8564D2A1887D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C45CB5-32FE-4FCD-B9F4-ABFCD6D5E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -105,10 +105,16 @@
     <t>云瑕</t>
   </si>
   <si>
+    <t>Halcyon</t>
+  </si>
+  <si>
     <t>attached_script:白狮地牢地城_云暇</t>
   </si>
   <si>
     <t>弦萝</t>
+  </si>
+  <si>
+    <t>Dahlia</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -118,6 +124,9 @@
   </si>
   <si>
     <t>灰雪</t>
+  </si>
+  <si>
+    <t>Threnody</t>
   </si>
   <si>
     <t>Like:绘画|神秘
@@ -143,6 +152,9 @@
   </si>
   <si>
     <t>洛维莎</t>
+  </si>
+  <si>
+    <t>Tasha</t>
   </si>
   <si>
     <t>Like:历史|特殊装备|音乐
@@ -175,6 +187,9 @@
     <t>雷毅</t>
   </si>
   <si>
+    <t>Laik</t>
+  </si>
+  <si>
     <t>Like:历史|特殊装备|格斗
 Desc:雷毅是一个野心家，同时也是一个冷酷的军人。他是白狮部落资历最老的军团长之一，却不甘于此，有人说他有一天会取代成为白狮的新首领。
 Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
@@ -184,6 +199,9 @@
     <t>隆达</t>
   </si>
   <si>
+    <t>Rabia</t>
+  </si>
+  <si>
     <t>Like:乐器|绘画
 Desc:隆达曾经隶属于野火组织，是上一任野火首领的挚友。野火本人，也就是该组织的前首领，他已经身患重疾，无法带领野火组织寻找一个光明的未来，于是他将组织的命运交付给隆达。隆达接到野火秘密指令，假意投靠雄鹰部落，指引雄鹰部落取得野火项上人头。组织中剩下的成员一部分被隆达招降，另一部分跟随了组织成员伊潘图。隆达在霍驹手下小心翼翼地保护着曾经的兄弟们，守护着野火与他的秘密约定。
 Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
@@ -193,6 +211,9 @@
     <t>伊潘图</t>
   </si>
   <si>
+    <t>Ishtar</t>
+  </si>
+  <si>
     <t>Like:珠宝|神秘
 Desc:伊潘图曾经隶属于野火组织，在上一任野火首领遇袭后，伊潘图选择了带领野火余党继续发展壮大。伊潘图生性贪婪，对于金钱没有一丝抵抗力，这样的贪婪让他为眼前的蝇头小利所束缚，眼光无法放得足够长远，这也注定了野火组织交到他手上很难有一个很大的发展。伊潘图认为上一任野火首领之死与曾经的队友隆达脱不了干系，所以伊潘图一直在寻找隆达，他立誓要为前首领报仇雪恨。
 Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
@@ -286,6 +307,9 @@
     <t>司焱</t>
   </si>
   <si>
+    <t>Dago</t>
+  </si>
+  <si>
     <t>Desc:司焱是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -298,6 +322,9 @@
     <t>阿戈斯</t>
   </si>
   <si>
+    <t>Ahriman</t>
+  </si>
+  <si>
     <t>Desc:阿戈斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
 IsNoExpel:1
 IsNoBetray:1
@@ -308,6 +335,9 @@
   </si>
   <si>
     <t>提尔瑞斯</t>
+  </si>
+  <si>
+    <t>Cimeri</t>
   </si>
   <si>
     <t>Desc:提尔瑞斯是瑞玛斯的四位副将之一，对火魔暗主和大统帅绝对服从。
@@ -361,118 +391,174 @@
     <t>Mech Threnody (abandonado)</t>
   </si>
   <si>
-    <t>idílico</t>
-  </si>
-  <si>
-    <t>Dália</t>
-  </si>
-  <si>
-    <t>Trenody</t>
-  </si>
-  <si>
-    <t>tasha</t>
-  </si>
-  <si>
-    <t>leigo</t>
-  </si>
-  <si>
-    <t>Raiva</t>
-  </si>
-  <si>
-    <t>Istar</t>
-  </si>
-  <si>
-    <t>Ifrit-Mestre do Vazio</t>
-  </si>
-  <si>
-    <t>dago</t>
-  </si>
-  <si>
-    <t>Ahrimã</t>
-  </si>
-  <si>
-    <t>Cimério</t>
-  </si>
-  <si>
-    <t>喜欢的礼物: Eu... bem, eu gosto de &lt;color=red&gt;pintura&lt;/color&gt;... Não, por favor, você não precisa me dar nada. Olá: Ah, é você. Precisa de algo? recusar_recruit_0: Desculpe, preciso continuar com minha pesquisa. recusar_recruit_1: Desculpe, neste momento meus compromissos não me permitem fazer isso. recusar_recruit_2: Algo parece ter mudado em você... Não tenho certeza do que exatamente, mas... talvez nossos objetivos não estejam no mesmo caminho. recusar_recruit_3:...Não tenho nada para te contar. recruta_msg: Sério? Eu adoraria!</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Um presente! Brilhante! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red&gt;bugigangas &lt;/color&gt;... olá: Você precisa de algo? recusar_recruit_0: Quero tentar traçar meu próprio caminho. recusar_recruit_1: Quero tentar conseguir isso sozinho. recusar_recruit_2: Sinto que tivemos algumas... diferenças ultimamente. recusar_recruit_3: Fiz algo errado? recruta_msg: Finalmente!</t>
-  </si>
-  <si>
-    <t>喜欢的礼物: Como você ousa falar comigo! Olá! Desta vez não vou me conter! recusar_recruit_0: Nunca! Vou te desprezar até o fim dos tempos... recruta_msg: Nunca vou me perdoar por isso...</t>
-  </si>
-  <si>
-    <t>Como:绘画 Desc:Nassant é um bruxo das trevas, mas ao contrário dos estereótipos populares, ele usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu vários inimigos. Natureza: gentil = 8, severo = 2, honesto = 6, astúcia = 4, calmo = 5, raiva = 5, forte = 3, fraco = 7 Habilidade de bunda: 统率技能南松</t>
-  </si>
-  <si>
-    <t>Como:故事|特殊装备|工艺|装饰 Desc:Zeynep, a irmã mais nova de sua amada falecida esposa, é um espírito cheio de vitalidade e travessura. Desde a infância, sua energia e alegria iluminaram todos os cantos da sua vida. Com seu sorriso contagiante e humor travesso, Zeynep tem sido uma fonte constante de diversão e aventura. Porém, por trás de sua personalidade viva, Zeynep também carrega consigo um profundo amor e carinho por sua irmã, sua falecida esposa. O vínculo especial entre eles os uniu de forma inquebrável e, embora sua ausência tenha deixado um vazio no coração de Zeynep, seu espírito persiste como um lembrete constante da beleza e da alegria que sua irmã trouxe às suas vidas. Natureza: gentil = 9, severo = 1, honesto = 3, astúcia = 7, calmo = 2, raiva = 8, forte = 5, fraco = 5 Habilidade de bunda: 统率技能阿绫</t>
-  </si>
-  <si>
-    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, é na verdade filha do capitão da guarda municipal de Jamal. Ela acredita que um Spiritmancer de Nasir matou seu pai e irmão. Seu coração está cheio de dor e sede de vingança. Leena dedicou sua vida a buscar justiça para sua família, convencida de que os responsáveis devem pagar por seus crimes. Sua determinação e habilidades a levaram a se tornar uma guerreira formidável. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 8, fraco = 2 Habilidade de bunda: 统率技能萧雅</t>
-  </si>
-  <si>
-    <t>anexo_script:白狮地牢地城_云暇</t>
-  </si>
-  <si>
-    <t>Como:绘画|神秘 Desc:Dahlia, também conhecida como Halcyon, já foi uma bruxa respeitada dentro da Sociedade Rosa Branca. No entanto, sua vida tomou um rumo sombrio quando ele se viu em prisão domiciliar imposta por Rebiya, a Rainha do Dakn. Em um ato distorcido de manipulação, Dahlia foi forçada a criar um potente pó mágico contra sua vontade. Este pó, habilmente usado por Rebiya, foi usado para paralisar Hassan, irmão de Dahlia e ex-líder dos Dakn. Agora sobrecarregada de culpa e remorso, o caminho de Dahlia está entrelaçado com sua busca desesperada para se libertar das garras de Rebiya e buscar a redenção por suas ações. Impulsionada por seu novo pseudônimo, Halcyon, Dahlia mergulha em um mundo traiçoeiro de intrigas e segredos. Determinada a derrubar o reinado tirânico de Rebiya, ela procura alianças e estratégias improváveis para libertar Hassan e desmantelar o regime opressivo. Cada movimento que ele faz é repleto de perigos e as consequências de suas decisões pesam em sua consciência. Enquanto navega pelas sombras do seu passado, Dahlia enfrenta um dilema moral, dividida entre a sua segurança pessoal e o bem maior. A sua jornada torna-se um teste à sua resiliência, à medida que ela procura restaurar a harmonia e a justiça num mundo manchado pela traição e pela opressão. Natureza: gentil = 5, severo = 5, honesto = 3, astúcia = 7, calmo = 8, raiva = 2, forte = 6, fraco = 4 Habilidade de bunda: 统率技能弦萝</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘 Desc:Dotada de um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela deveria ser escolhida para ir para a Cidade do Céu e continuar seu treinamento no caminho da grandeza. No entanto, o Furud a abandonou quando foi previsto que ela não tinha futuro, já que a magia fluía de Threnody de uma forma que ela não podia controlar, eventualmente condenando-a a esgotar sua reserva de poder e, portanto, sua vida. Threnody deixou sua casa e família, buscando tomar seu destino em suas próprias mãos e provar ao Furud que nenhum destino é imutável. Voz:NpcVoice.huixue BattleVoice:BattleVoice.huixue Natureza:tipo=7,severo=3,honesto=7,astúcia=3,calma=4,raiva=6,forte=2,fraco=8 AssSkill:统率技能灰雪</t>
-  </si>
-  <si>
-    <t>Like:故事|格斗 Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito indomável. O pai de Omar era um comerciante famoso na região das montanhas Zagros e abandonou a mãe de Omar por outra mulher quando ele tinha 14 anos. Isso causou uma relação tensa entre Omar, seu pai e sua madrasta, uma relação que ameaçava se transformar em hostilidade aberta, até que por acaso ele descobriu a verdade... Voice:NpcVoice.hupo BattleVoice:BattleVoice.hupo Nature:kind=6 , severo = 3, honesto = 8, astúcia = 2, calmo = 2, raiva = 8, forte = 5, fraco = 5 AssHabilidade:统率技能琥珀</t>
-  </si>
-  <si>
-    <t>Como:历史|特殊装备|音乐 WildMonsterKiller:1 Desc:Explorer Tasha investiga ruínas antigas espalhadas pela terra, procurando descobrir o passado escondido sob as areias. Ele visitou cidades antigas e palácios subterrâneos, enfrentou maldições arcanas e ouviu as vozes de deuses antigos. O companheiro de Tasha é um solenodonte, cuja mordida venenosa, imunidade a venenos e capacidade de detectar perigos a ajudaram muito em suas viagens. Voz:NpcVoice.luoweisha BattleVoice:BattleVoice.luoweisha Natureza:tipo=6,severo=4,honesto=5,astúcia=5,calma=9,raiva=1,forte=8,fraco=2 AssSkill:统率技能洛维莎</t>
-  </si>
-  <si>
-    <t>Como:历史|特殊装备 Desc:Badis, um jovem comandante dos Shujae, tornou-se uma figura proeminente desde a saída do lendário "Chacal" das fileiras dos Shujae. Com sua liderança corajosa e habilidades táticas excepcionais, ele liderou os mercenários Shujae a uma série de vitórias incomparáveis. A ausência do “Chacal” criou um vazio nos corações dos Shujae, mas Badis provou ser um sucessor digno. Com sua audácia e determinação, conseguiu conquistar o respeito e a lealdade de seus colegas. Sob seu comando, os Shujae alcançaram novos patamares de sucesso no campo de batalha, enfrentando desafios formidáveis e emergindo vitoriosos. Natureza: gentil = 6, severo = 4, honesto = 6, astúcia = 4, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能长孙弘</t>
-  </si>
-  <si>
-    <t>Como:历史|特殊装备|格斗 Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos da organização e espera um dia servir como seu líder. Desde seus primeiros dias como mercenário, Laik demonstrou habilidade excepcional no campo de batalha e determinação incansável para chegar ao topo. Sua lealdade e dedicação aos Shujae têm sido inabaláveis, permitindo-lhe ascender a uma posição de alto escalão dentro da organização. Natureza: gentil = 2, severo = 8, honesto = 2, astúcia = 8, calmo = 5, raiva = 5, forte = 7, fraco = 3 Habilidade de bunda: 统率技能雷毅</t>
-  </si>
-  <si>
-    <t>Como:乐器|绘画 Desc:Rabia, um ex-membro da Gangue Wildfire e amigo do fundador que lhe deu o nome, juntou-se ao clã Nasir por instruções de Wildfire, que estava gravemente doente. Sob sua liderança, Rabia liderou o clã Nasir para assumir a liderança do Wildfire. Ele convenceu muitos membros da gangue a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora, sob o comando de Husnu, Rabia continua a proteger seus ex-irmãos da Gangue Wildfire, cumprindo assim sua promessa ao Wildfire. A lealdade de Rabia ao seu amigo e fundador da Gangue Wildfire o levou a tomar decisões difíceis e embarcar em um novo caminho com o clã Nasir. Sua capacidade de persuasão foi fundamental para garantir a transição dos membros da gangue para o novo clã. Embora seus caminhos tenham divergido, Rabia continua mantendo seu vínculo com aqueles que compartilharam seu passado na Gangue Wildfire. Sob a liderança de Husnu, Rabia encontrou um novo propósito ao proteger e apoiar seus irmãos da Gangue Wildfire em sua nova afiliação ao clã Nasir. Apesar dos desafios e provações que enfrentam, Rabia permanece firme na sua promessa de cuidar deles e garantir o seu bem-estar. Natureza: gentil = 5, severo = 5, honesto = 8, astúcia = 2, calmo = 7, raiva = 3, forte = 7, fraco = 3 Habilidade de bunda: 统率技能隆达</t>
-  </si>
-  <si>
-    <t>Como:珠宝|神秘 Desc: Ex-membro da Gangue Wildfire, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da gangue foi morto. A ganância tornou Ishtar míope, limitando o potencial de sua organização. Ele continua procurando por Rabia, que ele acredita ser o responsável pela morte do líder da Gangue Wildfire. Ishtar, como ex-membro da Gangue Wildfire, ascendeu à liderança quando seu líder anterior foi morto. No entanto, a sua ganância afetou a sua visão e restringiu o potencial da sua organização. O seu foco estreito no ganho pessoal limitou a sua capacidade de ver além dos seus próprios interesses, prejudicando assim as oportunidades de crescimento e desenvolvimento do seu grupo. Natureza: gentil = 4, severo = 6, honesto = 1, astúcia = 9, calmo = 7, raiva = 3, forte = 3, fraco = 7 Habilidade de bunda: 统率技能伊潘图</t>
-  </si>
-  <si>
-    <t>Como:乐器|绘画 Desc:Yaksha, uma mulher aparentemente comum da linhagem dos Mestres das Feras, esconde um dom extraordinário. Ao contrário de outros membros de sua linhagem, ele não pode se transformar em uma fera, mas possui a habilidade única de apaziguar pessoas de outras tribos. Apesar de sua aparência comum, Yaksha carrega um desejo profundo: libertar seu povo de uma antiga maldição. Para aprender como curar sua família e desvendar o enigma que atormenta sua linhagem há gerações, Yaksha busca ingressar na prestigiosa Sociedade Rosa Branca. Natureza: gentil = 8, severo = 2, honesto = 7, astúcia = 3, calmo = 9, raiva = 1, forte = 6, fraco = 4 AssHabilidade: 统率技能希也</t>
-  </si>
-  <si>
-    <t>Desc:The Void Master Ifrit é o líder do Ifrit. Quando a Deusa do Rio selou o Ifrit, eles criaram uma barreira que impede o mundo exterior de detectar os poderes e a localização do Mestre do Vazio Ifrit. O custo? Sua lenta deterioração até atingir o estado atual. Presos atrás da barreira, os Ifrit sofreram um declínio constante. O Mestre do Vazio Ifrit, em seu papel de líder, enfrentou o desafio de guiar seu povo em meio ao desaparecimento gradual de seu antigo esplendor. Enquanto o mundo exterior desconhece a sua existência, o Mestre do Vazio Ifrit luta para preservar a identidade e os poderes da sua raça, procurando uma forma de se libertar da barreira e restaurar a sua glória perdida. Enfrentando incertezas e desafiando obstáculos, o Mestre do Vazio Ifrit se torna o farol de esperança para seu povo, incitando-os a superar seu estado atual e recuperar sua antiga grandeza. IsNoExpel:1 IsNoBetray:1</t>
-  </si>
-  <si>
-    <t>Desc:Rimmon é o Comandante das forças Ifrit e o conselheiro de confiança do Mestre do Vazio Ifrit. Destaca-se pela sua estatura imponente, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit na Batalha de Salzaar. Com a sua presença dominante e habilidade estratégica, Rimmon tornou-se uma figura central na tomada de decisões militares do Ifrit. A sua posição como comandante e conselheiro confere-lhe uma influência significativa sobre a direção das ações do povo Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Thamuz, talvez o mais velho de todos os Ifrit, era um sumo sacerdote entre seu povo antes do Mestre do Vazio Ifrit assumir a liderança. Não subestime suas habilidades apenas por causa de sua aparência frágil. Apesar de sua aparência frágil, Thamuz possui uma sabedoria e um poder que foram forjados ao longo dos anos. A sua antiga posição como sacerdote deu-lhe um profundo conhecimento dos mistérios e rituais do Ifrit, bem como uma ligação especial às energias e forças que os rodeiam. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro subcomandantes de Rimmon. Embora relativamente jovem, Yamuz dominou a maioria das terríveis artes arcanas de Thamuz. Sob a tutela de Thamuz, Yamuz demonstrou talento excepcional e rápida assimilação de conhecimento arcano. Ele absorveu os ensinamentos de Thamuz com dedicação e aprimorou suas habilidades místicas a um nível impressionante. A relação mestre-aprendiz entre Thamuz e Yamuz permitiu que este último ganhasse profundo domínio dos arcanos que antes eram exclusivos de Thamuz. Yamuz desenvolveu habilidade e versatilidade próprias, aliando sua juventude e energia à sabedoria ancestral transmitida por seu professor. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Shaka é um veterano do exército Ifrit. Ele deseja retornar a Salzaar para recuperar a glória e a honra de seus últimos anos. Com vasta experiência em campo de batalha, Shaka participou de inúmeras campanhas e enfrentou desafios formidáveis. No entanto, o chamado de Salzaar ressoou dentro dele, despertando um desejo ardente de retornar e provar seu valor mais uma vez. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Dago é um dos quatro subcomandantes de Rimmon. Sua lealdade ao Mestre do Vazio Ifrit é absoluta, até a morte. Dago provou ser um fiel seguidor e defensor do Void Master Ifrit. Sua devoção e lealdade são inabaláveis, e ele está disposto a sacrificar tudo por seu líder e pela causa do Ifrit. Como vice-comandante de Rimmon, Dago é uma presença imponente no campo de batalha. Sua capacidade de inspirar as tropas e sua dedicação à missão guiam-nas à vitória. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Ahriman serve diretamente sob o comando de Rimmon como um dos quatro subcomandantes e é encarregado de reconhecimento e vigilância à frente das forças principais do Ifrit. Como vice-comandante e chefe dos batedores, Ahriman desempenha um papel essencial na elaboração de estratégias e no planejamento das operações Ifrit. Sua missão é seguir em frente e coletar informações cruciais sobre o terreno, possíveis inimigos e possíveis obstáculos que possam surgir no caminho das forças principais. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Cimeri, originalmente, era um estudioso encarregado de registrar a história de seu povo, o Ifrit. Porém, após ser banido pela Deusa do Rio, seu foco mudou drasticamente. Cimeri mergulhou no estudo das artes arcanas com fervor, movido pelo desejo de vingança, e se tornou um dos vice-comandantes de Rimmon. A paixão pela vingança consumiu Cimeri após seu banimento da sociedade Ifrit. Sua devoção às artes arcanas se intensificou e seu objetivo passou a ser aproveitar seu conhecimento recém-adquirido para derrotar aqueles que lhes causaram tanta dor e sofrimento. Como vice-comandante de Rimmon, Cimeri desempenha um papel importante nas operações e estratégias do Ifrit. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Agni é talvez o mais enfurecido de todos os Ifrit e irá liberar sua ira sobre aqueles que estão mais próximos. Agni incorpora uma fúria transbordante que arde dentro dele. Seu temperamento volátil pode ser facilmente desencadeado e, em sua fúria, ele tentará liberar sua ira sobre aqueles que estão ao seu alcance. Como um dos Ifrit mais raivosos, Agni é conhecido por sua agressividade explosiva. Sua raiva é como um fogo descontrolado que consome tudo em seu caminho. Confrontar Agni pode ser uma experiência assustadora, pois sua raiva pode se manifestar de forma destrutiva e caótica. IsNoExpel:1 IsNoBetray:1 HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Como:乐器|神秘 Desc:Malek começou sua vida adulta como mercenário, mas aprimorou seu talento na arte da magia. Depois de melhorar suas habilidades, Malek decidiu se tornar um feiticeiro em tempo integral. Ele se juntou à Guilda dos Magos em Amaranth City e trabalha como pesquisador especializado em todas as coisas misteriosas. A transição de Malek de mercenário para feiticeiro reflete sua dedicação e paixão por dominar a magia. À medida que aprimorava suas habilidades mágicas, ele decidiu empregar seu conhecimento e poderes a serviço da pesquisa arcana. No seu papel de investigador especial, Malek tem a tarefa de explorar e desvendar os mistérios e segredos do mundo da magia. Natureza: gentil = 6, severo = 4, honesto = 7, astúcia = 3, calmo = 6, raiva = 4, forte = 5, fraco = 5 Habilidade de bunda: 统率技能马可</t>
-  </si>
-  <si>
-    <t>Tipo:神秘|故事|特殊装备 Desc:Khaldun nem sempre fala sobre seu passado. Antes, ele era um mago astuto e paciente do clã Dakn, disposto a usar qualquer meio para atingir seus objetivos. No entanto, em algum momento, ele de alguma forma se recusou a usar magia espiritual. Embora Khaldun permaneça em silêncio sobre seu passado, sua mudança de atitude em relação à magia espiritual deixou uma profunda impressão em sua vida e em seu caminho atual. Anteriormente conhecido por sua astúcia e paciência como mago Dakn, Khaldun encontrou um motivo para rejeitar o uso de magia espiritual e decidiu seguir um caminho diferente. A recusa de Khaldun em usar magia espiritual pode ser baseada em várias motivações pessoais ou eventos significativos em sua vida. Esta escolha pode refletir uma mudança nos seus valores, uma nova perspectiva sobre o uso da magia, ou talvez uma experiência traumática que o tenha feito reconsiderar a sua abordagem anterior. Natureza: gentil = 3, severo = 7, honesto = 1, astúcia = 9, calmo = 9, raiva = 1, forte = 8, fraco = 2 Habilidade de bunda: 统率技能柯墨斯</t>
+    <t>Mestre do Vazio Ifrit</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Eu, er... bem, eu gosto de &lt;color=red&gt;pintar&lt;/color&gt;... Não, por favor, não precisa me dar nada.
+hello:Ah, é você. Precisa de algo?
+refuse_recruit_0:Desculpe, mas preciso continuar minha pesquisa.
+refuse_recruit_1:Desculpe, meus compromissos não me permitem fazer isso agora.
+refuse_recruit_2:Parece que algo mudou em você... não sei exatamente o quê, mas... talvez nossos objetivos não estejam na mesma direção.
+refuse_recruit_3:... Não tenho nada a dizer para você.
+recruit_msg:Sério? Eu não poderia estar mais feliz!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:A presente? Ótimo! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red&gt;bugigangas&lt;/color&gt;...
+hello:Precisa de alguma coisa?
+refuse_recruit_0:Quero tentar seguir meu próprio caminho.
+refuse_recruit_1:Quero tentar fazer isso por conta própria.
+refuse_recruit_2:Sinto que ultimamente tivemos algumas... diferenças.
+refuse_recruit_3:Fiz algo errado?
+recruit_msg:Finalmente!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Como ousa falar comigo?
+hello:Você! Não vou me conter desta vez!
+refuse_recruit_0:Nunca! Vou te desprezar até o fim dos tempos...
+recruit_msg:Eu nunca vou me perdoar..</t>
+  </si>
+  <si>
+    <t>Like:绘画
+Desc:Nassant é um mago das trevas, mas, ao contrário dos estereótipos populares, usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu vários inimigos.
+Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
+AssSkill:统率技能南松</t>
+  </si>
+  <si>
+    <t>Like:故事|特殊装备|工艺|装饰
+Desc:Zeynep é a irmã mais nova de sua falecida esposa. Vivaz e travessa.
+Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能阿绫</t>
+  </si>
+  <si>
+    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, na verdade, é filha do capitão da guarda da Cidade de Jamal. Ela acredita que um Espiritualista de Nasir matou seu pai e seu irmão.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
+AssSkill:统率技能萧雅</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘
+Desc:Dahlia também é conhecida como Halcyon. Ela já foi uma bruxa na Sociedade Rosa Branca, mas foi colocada em prisão domiciliar por Rebiya, Rainha dos Dakn, e forçada a produzir um pó mágico. Rebiya usou esse pó para paralisar Hassan, seu irmão e ex-líder dos Dakn.
+Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
+AssSkill:统率技能弦萝</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘
+Desc:Abençoada com um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela deveria ser escolhida para ir para a Cidade do Céu para continuar seu treinamento no caminho da grandeza, mas os Furud a abandonaram quando foi previsto que ela não tinha futuro, pois a magia fluía de Threnody de uma maneira que ela não podia controlar, condenando-a a eventualmente esgotar seu reservatório de poder e, assim, sua vida. Threnody deixou sua casa e sua família, buscando controlar seu destino e provar aos Furud que nenhum destino é imutável.
+Voice:NpcVoice.huixue
+BattleVoice:BattleVoice.huixue
+Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
+AssSkill:统率技能灰雪</t>
+  </si>
+  <si>
+    <t>Like:故事|格斗
+Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito rebelde. O pai de Omar era um famoso comerciante na região das Montanhas Zagros, e abandonou a mãe de Omar por outra mulher quando Omar tinha 14 anos. Omar, portanto, tinha um relacionamento tenso com seu pai e madrasta, um relacionamento que ameaçava se transformar em hostilidade completa, até que por acaso ele descobriu a verdade...
+Voice:NpcVoice.hupo
+BattleVoice:BattleVoice.hupo
+Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能琥珀</t>
+  </si>
+  <si>
+    <t>Like:历史|特殊装备|音乐
+WildMonsterKiller:1
+Desc:A exploradora Tasha busca antigas ruínas espalhadas pela terra, buscando descobrir o passado escondido sob as areias. Ela visitou cidades antigas e palácios subterrâneos, enfrentou maldições misteriosas e ouviu as vozes dos deuses antigos. Ela mantém um solenodon de estimação, cuja picada venenosa, imunidade a venenos e habilidade de detectar perigo têm servido bem em suas jornadas.
+Voice:NpcVoice.luoweisha
+BattleVoice:BattleVoice.luoweisha
+Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能洛维莎</t>
+  </si>
+  <si>
+    <t>Like:历史|特殊装备
+Desc:Badis é um jovem comandante dos Shujae. Desde que o "Jackal" deixou os Shujae, ele liderou os mercenários Shujae para inúmeras vitórias.
+Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能长孙弘</t>
+  </si>
+  <si>
+    <t>Like:历史|特殊装备|格斗
+Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos, mas tem esperanças de eventualmente se tornar o líder deles.
+Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
+AssSkill:统率技能雷毅</t>
+  </si>
+  <si>
+    <t>Like:乐器|绘画
+Desc:Ex-membro da Clique do Fogo Selvagem e amigo de seu fundador homônimo. Rabia se juntou ao clã Nasir por instrução do Fogo Selvagem, mortalmente doente, levando-os a cortar a cabeça do Fogo Selvagem. Rabia persuadiu muitos membros da clique a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora servindo sob Husnu, Rabia continua a proteger seus antigos irmãos da Clique do Fogo Selvagem, de acordo com sua promessa ao Fogo Selvagem.
+Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能隆达</t>
+  </si>
+  <si>
+    <t>Like:珠宝|神秘
+Desc:Ex-membro da Clique do Fogo Selvagem, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da clique foi morto. A avareza tornou Ishtar míope, limitando o potencial de sua organização. Ele continua a procurar Rabia, a quem ele acredita ser responsável pela morte do líder da Clique do Fogo Selvagem.
+Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
+AssSkill:统率技能伊潘图</t>
+  </si>
+  <si>
+    <t>Like:乐器|绘画
+Desc:Yaksha é uma mulher bastante comum da linhagem Homem-Besta. Ela tem a habilidade de acalmar pessoas de outras tribos, mas não pode se transformar em uma besta. Yaksha tem um desejo simples - remover a maldição de seu povo. Como tal, ela deseja se juntar à Sociedade da Rosa Branca para aprender a curar sua família.
+Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
+AssSkill:统率技能希也</t>
+  </si>
+  <si>
+    <t>Desc:Rimmon é o comandante das forças Ifrit e o conselheiro mais confiável do Mestre do Vazio dos Ifrit. Ele é de estatura gigante, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit para a batalha em Salzaar.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:O Mestre do Vazio dos Ifrit é o líder dos Ifrit. Quando a Deusa do Rio selou os Ifrit, eles criaram uma barreira que impediu o mundo exterior de detectar os poderes e a localização do Mestre do Vazio dos Ifrit. O custo? Seu lento declínio até seu estado atual.
+IsNoExpel:1
+IsNoBetray:1</t>
+  </si>
+  <si>
+    <t>Desc:Thamuz é talvez o mais velho de todos os Ifrit. Ele era um sumo sacerdote entre os Ifrit antes que o Mestre do Vazio dos Ifrit assumisse a liderança. Não subestime suas habilidades apenas olhando para sua aparência frágil.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro vice-comandantes de Rimmon. Ele é relativamente jovem entre os Ifrit, mas dominou a maioria das arcanas aterrorizantes de Thamuz.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Shaka é uma veterana do exército Ifrit. Ela está ansiosa para retornar a Salzaar para recuperar a glória e a honra de seus anos anteriores.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Dago é um dos quatro vice-comandantes de Rimmon. Dago é totalmente leal ao Mestre do Vazio dos Ifrit, mesmo até a morte.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Ahriman serve diretamente sob Rimmon como um dos quatro vice-comandantes e é encarregado de fazer o reconhecimento à frente das forças principais dos Ifrit.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Cimeri era principalmente um estudioso encarregado de registrar a história de seu povo - os Ifrit. Depois de serem banidos pela Deusa do Rio, ele começou a estudar fervorosamente as artes arcanas em busca de vingança como um dos vice-comandantes de Rimmon
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Agni é talvez o mais furioso de todos os Ifrit e descontará sua raiva em quem estiver mais próximo.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Like:乐器|神秘
+Desc:Malek começou sua vida adulta como um mercenário, mas começou a aperfeiçoar seu talento para a arcana. Depois de aprimorar suas habilidades, Malek optou por se tornar um feiticeiro em tempo integral. Ele se juntou à Guilda dos Magos na Cidade Amaranto e trabalha como investigador especial de todas as coisas arcanas.
+Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
+AssSkill:统率技能马可</t>
+  </si>
+  <si>
+    <t>Like:神秘|故事|特殊装备
+Desc:Khaldun não costuma falar sobre seu passado. Uma vez astuto e paciente como um mago Dakn, ele não poupou meios para alcançar seus objetivos, mas posteriormente se recusou a usar magia espiritual de alguma forma.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能柯墨斯</t>
   </si>
 </sst>
 </file>
@@ -994,15 +1080,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G26"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1028,7 +1116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5">
+    <row r="2" spans="1:7" ht="243">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5">
+    <row r="3" spans="1:7" ht="162">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="405">
+    <row r="4" spans="1:7" ht="175.5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="67.5">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1105,387 +1193,387 @@
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="189">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.5">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="297">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="364.5">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="409.5">
+    <row r="11" spans="1:7" ht="189">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="202.5">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="351">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="337.5">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="409.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="229.5">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="189">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="409.5">
+    <row r="17" spans="1:7" ht="189">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="297">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="135">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="189">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="81">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="216">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="94.5">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="189">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="81">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="189">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="94.5">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="202.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="94.5">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="202.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="94.5">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="216">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="216">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_Quest_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C45CB5-32FE-4FCD-B9F4-ABFCD6D5E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A82065-BD10-42E2-88E3-DCE44E89D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,12 @@
 AssSkill:统率技能南松</t>
   </si>
   <si>
+    <t>Like:绘画
+Desc:Nassant is a dark wizard, but, contrary to popular stereotypes, uses his skills for healing in a world where healing magic is dominated by the White Rose. His dedication has saved many lives, but it has also made him quite a few enemies.
+Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
+AssSkill:统率技能南松</t>
+  </si>
+  <si>
     <t>阿绫</t>
   </si>
   <si>
@@ -85,6 +91,12 @@
 AssSkill:统率技能阿绫</t>
   </si>
   <si>
+    <t>Like:故事|特殊装备|工艺|装饰
+Desc:Zeynep is the younger sister of your deceased wife. Lively and mischievous.
+Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能阿绫</t>
+  </si>
+  <si>
     <t>萧雅</t>
   </si>
   <si>
@@ -102,6 +114,11 @@
 AssSkill:统率技能萧雅</t>
   </si>
   <si>
+    <t>Desc:Leena, a charming woman who claims to be from Dunestorm, is actually the daughter of the captain of Jamal City's guards. She believes that a Spiritmancer from the Nasir killed her father and brother.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
+AssSkill:统率技能萧雅</t>
+  </si>
+  <si>
     <t>云瑕</t>
   </si>
   <si>
@@ -119,6 +136,12 @@
   <si>
     <t>Like:绘画|神秘
 Desc:弦萝，对外自称云瑕。曾经是一位白蔷薇学会的女巫师，但是被蝎后阿曼莎软禁在毒蝎部落，被迫研制一种粉末，给长螯复用导致他瘫痪卧床不起。
+Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
+AssSkill:统率技能弦萝</t>
+  </si>
+  <si>
+    <t>Like:绘画|神秘
+Desc:Dahlia also goes by the name Halcyon. She was once a witch in the White Rose Society, but was placed under house arrest by Rebiya, Queen of the Dakn, and forced to produce a magical powder. Rebiya used this powder to paralyze Hassan, her brother and former leader of the Dakn.
 Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
 AssSkill:统率技能弦萝</t>
   </si>
@@ -137,6 +160,14 @@
 AssSkill:统率技能灰雪</t>
   </si>
   <si>
+    <t>Like:绘画|神秘
+Desc:Blessed with extraordinary talent for magic, Threnody was born to be a witch. She was to be chosen to go to Sky City to continue her training on the path to greatness, but the Furud abandoned her when it was foretold that she had no future, for magic flowed out of Threnody in a manner that she could not control, dooming her to eventually exhaust her reservoir of power and thus her life. Threnody left her home and family, seeking to take her fate in her own hands, and prove to the Furud that no destiny is set in stone.
+Voice:NpcVoice.huixue
+BattleVoice:BattleVoice.huixue
+Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
+AssSkill:统率技能灰雪</t>
+  </si>
+  <si>
     <t>琥珀</t>
   </si>
   <si>
@@ -145,6 +176,14 @@
   <si>
     <t>Like:故事|格斗
 Desc:琥珀从小调皮捣蛋，肆意妄为，长大后更是狂放不羁，无法无天。琥珀的父亲是大雪山远近闻名的富商，在琥珀十四岁时，父亲抛弃了他和他的母亲，另娶了新欢。琥珀屡次故意刁难继母，激化与父亲之间的矛盾。终于在一次偶然事件中，琥珀得知了这一切的真相……
+Voice:NpcVoice.hupo
+BattleVoice:BattleVoice.hupo
+Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
+AssSkill:统率技能琥珀</t>
+  </si>
+  <si>
+    <t>Like:故事|格斗
+Desc:From a very young age, Omar earned the reputation of being an unruly spirit. Omar's father was a famous merchant in the Zagros Mountains region, and he abandoned Omar's mother for another woman when Omar was 14. Omar thus had a strained relationship with his father and stepmother, one that threatened to boil over into outright hostility, until by chance he discovered the truth...
 Voice:NpcVoice.hupo
 BattleVoice:BattleVoice.hupo
 Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
@@ -166,6 +205,15 @@
 AssSkill:统率技能洛维莎</t>
   </si>
   <si>
+    <t>Like:历史|特殊装备|音乐
+WildMonsterKiller:1
+Desc:The explorer Tasha seeks out ancient ruins scattered across the land, seeking to discover the past hidden beneath the sands. She has visited ancient cities and subterranean palaces, came face-to-face with eldritch curses, and heard the voices of the old gods. She keeps a pet solenodon, whose venomous bite, immunity to poisons and ability to sense danger has served Tasha well on her journeys.
+Voice:NpcVoice.luoweisha
+BattleVoice:BattleVoice.luoweisha
+Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能洛维莎</t>
+  </si>
+  <si>
     <t>机械灰雪</t>
   </si>
   <si>
@@ -184,6 +232,12 @@
 AssSkill:统率技能长孙弘</t>
   </si>
   <si>
+    <t>Like:历史|特殊装备
+Desc:Badis is a young Commander from the Shujae. Ever since the "Jackal" left the Shujae, he has led the Shujae mercenaries to countless victories.
+Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能长孙弘</t>
+  </si>
+  <si>
     <t>雷毅</t>
   </si>
   <si>
@@ -196,6 +250,12 @@
 AssSkill:统率技能雷毅</t>
   </si>
   <si>
+    <t>Like:历史|特殊装备|格斗
+Desc:Laik is a highly ambitious high-ranking mercenary of the Shujae. He is one of their longest-serving members, but has hopes of eventually serving as their leader.
+Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
+AssSkill:统率技能雷毅</t>
+  </si>
+  <si>
     <t>隆达</t>
   </si>
   <si>
@@ -208,6 +268,12 @@
 AssSkill:统率技能隆达</t>
   </si>
   <si>
+    <t>Like:乐器|绘画
+Desc:Former member of the Wildfire Clique and friend of its namesake founder. Rabia joined the Nasir clan at the mortally-ill Wildfire's instruction, leading them to take Wildfire's head. Rabia persuaded many of the clique's members to join the Nasir clan, while the rest followed Ishtar. Now serving under Husnu, Rabia continues to protect his former Wildfire Clique brothers, in accordance with his promise to Wildfire.
+Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
+AssSkill:统率技能隆达</t>
+  </si>
+  <si>
     <t>伊潘图</t>
   </si>
   <si>
@@ -220,6 +286,12 @@
 AssSkill:统率技能伊潘图</t>
   </si>
   <si>
+    <t>Like:珠宝|神秘
+Desc:Former member of the Wildfire Clique, Ishtar became the leader of its remnants when the clique's previous leader was killed. Avarice has made Ishtar short-sighted, limiting the potential of his organization. He continues to seek Rabia, whom he believes was responsible for the Wildfire Clique leader's death.
+Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
+AssSkill:统率技能伊潘图</t>
+  </si>
+  <si>
     <t>希也</t>
   </si>
   <si>
@@ -232,6 +304,12 @@
 AssSkill:统率技能希也</t>
   </si>
   <si>
+    <t>Like:乐器|绘画
+Desc:Yaksha is a rather ordinary woman from the Beastmaster bloodline. She has the ability to pacify people of other ribes but cannot transform into a beast herself. Yaksha has a simple desire - for her people's curse to be removed. As such, she wishes to join the White Rose Society to learn how to cure her family.
+Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
+AssSkill:统率技能希也</t>
+  </si>
+  <si>
     <t>火魔暗主</t>
   </si>
   <si>
@@ -241,6 +319,11 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:The Ifrit Void Master is the leader of the Ifrit. When the River Goddess sealed away the Ifrit, they created a barrier which prevented the outside world from detecting the Ifrit Void Master's powers and location. The cost? Their slow decline to their current state.
+IsNoExpel:1
+IsNoBetray:1</t>
+  </si>
+  <si>
     <t>火魔瑞玛斯</t>
   </si>
   <si>
@@ -256,6 +339,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Rimmon is the Commander of the Ifrit forces and the Ifrit Void Master's most trusted advisor. He is of giant stature, even amongst the Ifrit. Rimmon has always advocated for the conquering of mankind, and personally lead the Ifrit army into battle in Salzaar.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔赤岩</t>
   </si>
   <si>
@@ -271,6 +360,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Thamuz is perhaps the eldest of all Ifrit. He was a high priest among the Ifrit before the Ifrit Void Master assumed leadership. Do not underestimate his abilities just by looking at his frail stature.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔灰岩</t>
   </si>
   <si>
@@ -286,6 +381,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Yamuz is Thamuz's favored apprentice and one of Rimmon's four deputies. He is a relatively young Ifrit but has mastered most of Thamuz's terrifying arcana.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔哈比耳</t>
   </si>
   <si>
@@ -301,6 +402,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Shaka is a veteran of the Ifrit army. She is eager to return to Salzaar to regain the glory and honor of her former years.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔司焱</t>
   </si>
   <si>
@@ -316,6 +423,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Dago is one of Rimmon's four deputies. Dago is utterly loyal to the Ifrit Void Master, even unto death.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔阿戈斯</t>
   </si>
   <si>
@@ -331,6 +444,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Ahriman serves directly under Rimmon as one of four deputies and is charged with scouting ahead of the Ifrit's main forces.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔提尔瑞斯</t>
   </si>
   <si>
@@ -346,6 +465,12 @@
 HeroRace:火魔</t>
   </si>
   <si>
+    <t>Desc:Cimeri was primarily a scholar charged with recording the history of his people - the Ifrit. After they were banished by the River Goddess, he began fervently studying the arcane arts in pursuit of revenge as one of Rimmon's deputies.
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
     <t>火魔阿格尼</t>
   </si>
   <si>
@@ -356,6 +481,12 @@
   </si>
   <si>
     <t>Desc:阿格尼是个易怒的火魔。每次愤怒之后，他都要把痛苦施加在别人身上。
+IsNoExpel:1
+IsNoBetray:1
+HeroRace:火魔</t>
+  </si>
+  <si>
+    <t>Desc:Agni is perhaps the angriest of all Ifrit, and will take his rage out on whomever is closest.
 IsNoExpel:1
 IsNoBetray:1
 HeroRace:火魔</t>
@@ -373,6 +504,12 @@
 AssSkill:统率技能马可</t>
   </si>
   <si>
+    <t>Like:乐器|神秘
+Desc:Malek started his adult life as a mercenary but began finetuning his talent for arcana. After improving his skills, Malek chose to become a fulltime sorcerer. He joined the Wizards Guild in Amaranth Town and works as a special investigator of all things arcane.
+Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
+AssSkill:统率技能马可</t>
+  </si>
+  <si>
     <t>队友柯墨斯</t>
   </si>
   <si>
@@ -388,177 +525,40 @@
 AssSkill:统率技能柯墨斯</t>
   </si>
   <si>
-    <t>Mech Threnody (abandonado)</t>
-  </si>
-  <si>
-    <t>Mestre do Vazio Ifrit</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:Eu, er... bem, eu gosto de &lt;color=red&gt;pintar&lt;/color&gt;... Não, por favor, não precisa me dar nada.
+    <t>Like:神秘|故事|特殊装备
+Desc:Khaldun does not always talk about his past. Once cunning and patient as a Dakn wizard, he spared no means to achieve his goals but later refused to use spirit magic somehow.
+Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
+AssSkill:统率技能柯墨斯</t>
+  </si>
+  <si>
+    <t>Ifrit, Mestre do Vazio</t>
+  </si>
+  <si>
+    <t>Trinado Mecânico (abandonado)</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:Bem, eu gosto de... &lt;color=red&gt;pintar&lt;/color&gt;... Não, por favor, não há necessidade de me dar nada.
 hello:Ah, é você. Precisa de algo?
 refuse_recruit_0:Desculpe, mas preciso continuar minha pesquisa.
 refuse_recruit_1:Desculpe, meus compromissos não me permitem fazer isso agora.
-refuse_recruit_2:Parece que algo mudou em você... não sei exatamente o quê, mas... talvez nossos objetivos não estejam na mesma direção.
+refuse_recruit_2:Algo parece ter mudado em você... Não tenho certeza do que exatamente, mas... talvez nossos objetivos não estejam na mesma direção.
 refuse_recruit_3:... Não tenho nada a dizer para você.
-recruit_msg:Sério? Eu não poderia estar mais feliz!</t>
-  </si>
-  <si>
-    <t>喜欢的礼物:A presente? Ótimo! Há muitas coisas que eu quero... &lt;color=red&gt;livros de histórias&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red&gt;bugigangas&lt;/color&gt;...
-hello:Precisa de alguma coisa?
+recruit_msg:Sério? Eu ficaria feliz!</t>
+  </si>
+  <si>
+    <t>喜欢的礼物:A gift? Um presente? Ótimo! Há muitas coisas que eu gostaria... &lt;color=red&gt;livros de história&lt;/color&gt;, &lt;color=red&gt;equipamentos especiais&lt;/color&gt;, &lt;color=red&gt;artesanato&lt;/color&gt;, &lt;color=red&gt;acessórios&lt;/color&gt;...
+hello:Precisa de algo?
 refuse_recruit_0:Quero tentar seguir meu próprio caminho.
 refuse_recruit_1:Quero tentar fazer isso por conta própria.
 refuse_recruit_2:Sinto que ultimamente tivemos algumas... diferenças.
-refuse_recruit_3:Fiz algo errado?
+refuse_recruit_3:Fiz algo de errado?
 recruit_msg:Finalmente!</t>
   </si>
   <si>
-    <t>喜欢的礼物:Como ousa falar comigo?
-hello:Você! Não vou me conter desta vez!
-refuse_recruit_0:Nunca! Vou te desprezar até o fim dos tempos...
-recruit_msg:Eu nunca vou me perdoar..</t>
-  </si>
-  <si>
-    <t>Like:绘画
-Desc:Nassant é um mago das trevas, mas, ao contrário dos estereótipos populares, usa suas habilidades para curar em um mundo onde a magia de cura é dominada pela Rosa Branca. Sua dedicação salvou muitas vidas, mas também lhe rendeu vários inimigos.
-Nature:kind=8,severe=2,honest=6,cunning=4,calm=5,anger=5,strong=3,weak=7
-AssSkill:统率技能南松</t>
-  </si>
-  <si>
-    <t>Like:故事|特殊装备|工艺|装饰
-Desc:Zeynep é a irmã mais nova de sua falecida esposa. Vivaz e travessa.
-Nature:kind=9,severe=1,honest=3,cunning=7,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能阿绫</t>
-  </si>
-  <si>
-    <t>Desc:Leena, uma mulher encantadora que afirma ser de Dunestorm, na verdade, é filha do capitão da guarda da Cidade de Jamal. Ela acredita que um Espiritualista de Nasir matou seu pai e seu irmão.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=7,anger=3,strong=8,weak=2
-AssSkill:统率技能萧雅</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Dahlia também é conhecida como Halcyon. Ela já foi uma bruxa na Sociedade Rosa Branca, mas foi colocada em prisão domiciliar por Rebiya, Rainha dos Dakn, e forçada a produzir um pó mágico. Rebiya usou esse pó para paralisar Hassan, seu irmão e ex-líder dos Dakn.
-Nature:kind=5,severe=5,honest=3,cunning=7,calm=8,anger=2,strong=6,weak=4
-AssSkill:统率技能弦萝</t>
-  </si>
-  <si>
-    <t>Like:绘画|神秘
-Desc:Abençoada com um talento extraordinário para a magia, Threnody nasceu para ser uma bruxa. Ela deveria ser escolhida para ir para a Cidade do Céu para continuar seu treinamento no caminho da grandeza, mas os Furud a abandonaram quando foi previsto que ela não tinha futuro, pois a magia fluía de Threnody de uma maneira que ela não podia controlar, condenando-a a eventualmente esgotar seu reservatório de poder e, assim, sua vida. Threnody deixou sua casa e sua família, buscando controlar seu destino e provar aos Furud que nenhum destino é imutável.
-Voice:NpcVoice.huixue
-BattleVoice:BattleVoice.huixue
-Nature:kind=7,severe=3,honest=7,cunning=3,calm=4,anger=6,strong=2,weak=8
-AssSkill:统率技能灰雪</t>
-  </si>
-  <si>
-    <t>Like:故事|格斗
-Desc:Desde muito jovem, Omar ganhou a reputação de ser um espírito rebelde. O pai de Omar era um famoso comerciante na região das Montanhas Zagros, e abandonou a mãe de Omar por outra mulher quando Omar tinha 14 anos. Omar, portanto, tinha um relacionamento tenso com seu pai e madrasta, um relacionamento que ameaçava se transformar em hostilidade completa, até que por acaso ele descobriu a verdade...
-Voice:NpcVoice.hupo
-BattleVoice:BattleVoice.hupo
-Nature:kind=6,severe=3,honest=8,cunning=2,calm=2,anger=8,strong=5,weak=5
-AssSkill:统率技能琥珀</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|音乐
-WildMonsterKiller:1
-Desc:A exploradora Tasha busca antigas ruínas espalhadas pela terra, buscando descobrir o passado escondido sob as areias. Ela visitou cidades antigas e palácios subterrâneos, enfrentou maldições misteriosas e ouviu as vozes dos deuses antigos. Ela mantém um solenodon de estimação, cuja picada venenosa, imunidade a venenos e habilidade de detectar perigo têm servido bem em suas jornadas.
-Voice:NpcVoice.luoweisha
-BattleVoice:BattleVoice.luoweisha
-Nature:kind=6,severe=4,honest=5,cunning=5,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能洛维莎</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备
-Desc:Badis é um jovem comandante dos Shujae. Desde que o "Jackal" deixou os Shujae, ele liderou os mercenários Shujae para inúmeras vitórias.
-Nature:kind=6,severe=4,honest=6,cunning=4,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能长孙弘</t>
-  </si>
-  <si>
-    <t>Like:历史|特殊装备|格斗
-Desc:Laik é um mercenário de alto escalão altamente ambicioso dos Shujae. Ele é um dos membros mais antigos, mas tem esperanças de eventualmente se tornar o líder deles.
-Nature:kind=2,severe=8,honest=2,cunning=8,calm=5,anger=5,strong=7,weak=3
-AssSkill:统率技能雷毅</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Ex-membro da Clique do Fogo Selvagem e amigo de seu fundador homônimo. Rabia se juntou ao clã Nasir por instrução do Fogo Selvagem, mortalmente doente, levando-os a cortar a cabeça do Fogo Selvagem. Rabia persuadiu muitos membros da clique a se juntarem ao clã Nasir, enquanto o resto seguiu Ishtar. Agora servindo sob Husnu, Rabia continua a proteger seus antigos irmãos da Clique do Fogo Selvagem, de acordo com sua promessa ao Fogo Selvagem.
-Nature:kind=5,severe=5,honest=8,cunning=2,calm=7,anger=3,strong=7,weak=3
-AssSkill:统率技能隆达</t>
-  </si>
-  <si>
-    <t>Like:珠宝|神秘
-Desc:Ex-membro da Clique do Fogo Selvagem, Ishtar se tornou o líder de seus remanescentes quando o líder anterior da clique foi morto. A avareza tornou Ishtar míope, limitando o potencial de sua organização. Ele continua a procurar Rabia, a quem ele acredita ser responsável pela morte do líder da Clique do Fogo Selvagem.
-Nature:kind=4,severe=6,honest=1,cunning=9,calm=7,anger=3,strong=3,weak=7
-AssSkill:统率技能伊潘图</t>
-  </si>
-  <si>
-    <t>Like:乐器|绘画
-Desc:Yaksha é uma mulher bastante comum da linhagem Homem-Besta. Ela tem a habilidade de acalmar pessoas de outras tribos, mas não pode se transformar em uma besta. Yaksha tem um desejo simples - remover a maldição de seu povo. Como tal, ela deseja se juntar à Sociedade da Rosa Branca para aprender a curar sua família.
-Nature:kind=8,severe=2,honest=7,cunning=3,calm=9,anger=1,strong=6,weak=4
-AssSkill:统率技能希也</t>
-  </si>
-  <si>
-    <t>Desc:Rimmon é o comandante das forças Ifrit e o conselheiro mais confiável do Mestre do Vazio dos Ifrit. Ele é de estatura gigante, mesmo entre os Ifrit. Rimmon sempre defendeu a conquista da humanidade e liderou pessoalmente o exército Ifrit para a batalha em Salzaar.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:O Mestre do Vazio dos Ifrit é o líder dos Ifrit. Quando a Deusa do Rio selou os Ifrit, eles criaram uma barreira que impediu o mundo exterior de detectar os poderes e a localização do Mestre do Vazio dos Ifrit. O custo? Seu lento declínio até seu estado atual.
-IsNoExpel:1
-IsNoBetray:1</t>
-  </si>
-  <si>
-    <t>Desc:Thamuz é talvez o mais velho de todos os Ifrit. Ele era um sumo sacerdote entre os Ifrit antes que o Mestre do Vazio dos Ifrit assumisse a liderança. Não subestime suas habilidades apenas olhando para sua aparência frágil.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Yamuz é o aprendiz favorito de Thamuz e um dos quatro vice-comandantes de Rimmon. Ele é relativamente jovem entre os Ifrit, mas dominou a maioria das arcanas aterrorizantes de Thamuz.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Shaka é uma veterana do exército Ifrit. Ela está ansiosa para retornar a Salzaar para recuperar a glória e a honra de seus anos anteriores.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Dago é um dos quatro vice-comandantes de Rimmon. Dago é totalmente leal ao Mestre do Vazio dos Ifrit, mesmo até a morte.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Ahriman serve diretamente sob Rimmon como um dos quatro vice-comandantes e é encarregado de fazer o reconhecimento à frente das forças principais dos Ifrit.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Cimeri era principalmente um estudioso encarregado de registrar a história de seu povo - os Ifrit. Depois de serem banidos pela Deusa do Rio, ele começou a estudar fervorosamente as artes arcanas em busca de vingança como um dos vice-comandantes de Rimmon
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Desc:Agni é talvez o mais furioso de todos os Ifrit e descontará sua raiva em quem estiver mais próximo.
-IsNoExpel:1
-IsNoBetray:1
-HeroRace:火魔</t>
-  </si>
-  <si>
-    <t>Like:乐器|神秘
-Desc:Malek começou sua vida adulta como um mercenário, mas começou a aperfeiçoar seu talento para a arcana. Depois de aprimorar suas habilidades, Malek optou por se tornar um feiticeiro em tempo integral. Ele se juntou à Guilda dos Magos na Cidade Amaranto e trabalha como investigador especial de todas as coisas arcanas.
-Nature:kind=6,severe=4,honest=7,cunning=3,calm=6,anger=4,strong=5,weak=5
-AssSkill:统率技能马可</t>
-  </si>
-  <si>
-    <t>Like:神秘|故事|特殊装备
-Desc:Khaldun não costuma falar sobre seu passado. Uma vez astuto e paciente como um mago Dakn, ele não poupou meios para alcançar seus objetivos, mas posteriormente se recusou a usar magia espiritual de alguma forma.
-Nature:kind=3,severe=7,honest=1,cunning=9,calm=9,anger=1,strong=8,weak=2
-AssSkill:统率技能柯墨斯</t>
+    <t>喜欢的礼物:Como você ousa falar comigo!
+hello:Você! Eu não vou hesitar de te bater desta vez!
+refuse_recruit_0:Nunca! Eu vou desprezar você até o fim da minha vida...
+recruit_msg:Nunca vou me perdoar por isso…</t>
   </si>
 </sst>
 </file>
@@ -1080,16 +1080,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1116,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="243">
+    <row r="2" spans="1:7" ht="409.5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1130,450 +1128,450 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="162">
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="175.5">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="405">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="189">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.5">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="297">
+        <v>31</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="364.5">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>103</v>
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="189">
+    <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="202.5">
+        <v>45</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.5">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="351">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="337.5">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="229.5">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="189">
+        <v>61</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="409.5">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="189">
+        <v>64</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="135">
+        <v>69</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="297">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="81">
+        <v>74</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="189">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="94.5">
+        <v>79</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="216">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="81">
+        <v>84</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="189">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="94.5">
+        <v>89</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="189">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="94.5">
+        <v>94</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="202.5">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="94.5">
+        <v>99</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="202.5">
       <c r="A24" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="216">
+        <v>104</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.5">
       <c r="A25" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="216">
+        <v>108</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.5">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
